--- a/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/21Sept2013_Xining_Physioflow_X1X4/X4 at 2200.xlsx
+++ b/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/21Sept2013_Xining_Physioflow_X1X4/X4 at 2200.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035"/>
+    <workbookView windowWidth="16391" windowHeight="5412"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -90,27 +90,6 @@
     <t xml:space="preserve"> Marks </t>
   </si>
   <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>60w</t>
-  </si>
-  <si>
-    <t>150w</t>
-  </si>
-  <si>
-    <t>165w</t>
-  </si>
-  <si>
-    <t>180w</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>---------------</t>
-  </si>
-  <si>
     <t xml:space="preserve">Avg Hr </t>
   </si>
   <si>
@@ -155,29 +134,393 @@
   <si>
     <t>Avg EDFR</t>
   </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>60w</t>
+  </si>
+  <si>
+    <t>150w</t>
+  </si>
+  <si>
+    <t>165w</t>
+  </si>
+  <si>
+    <t>180w</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>---------------</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -185,20 +528,309 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="35" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -206,6 +838,1450 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0595080154781647"/>
+          <c:y val="0.181773997569866"/>
+          <c:w val="0.907739082365948"/>
+          <c:h val="0.605686512758202"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$6:$A$104</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm:ss</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0" c:formatCode="h:mm:ss">
+                  <c:v>0.000115740740740741</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="h:mm:ss">
+                  <c:v>0.000231481481481481</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="h:mm:ss">
+                  <c:v>0.000347222222222222</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="h:mm:ss">
+                  <c:v>0.000462962962962963</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="h:mm:ss">
+                  <c:v>0.000578703703703704</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="h:mm:ss">
+                  <c:v>0.000694444444444444</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="h:mm:ss">
+                  <c:v>0.000810185185185185</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="h:mm:ss">
+                  <c:v>0.000925925925925926</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="h:mm:ss">
+                  <c:v>0.00104166666666667</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="h:mm:ss">
+                  <c:v>0.00115740740740741</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="h:mm:ss">
+                  <c:v>0.00127314814814815</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="h:mm:ss">
+                  <c:v>0.00138888888888889</c:v>
+                </c:pt>
+                <c:pt idx="12" c:formatCode="h:mm:ss">
+                  <c:v>0.00150462962962963</c:v>
+                </c:pt>
+                <c:pt idx="13" c:formatCode="h:mm:ss">
+                  <c:v>0.00162037037037037</c:v>
+                </c:pt>
+                <c:pt idx="14" c:formatCode="h:mm:ss">
+                  <c:v>0.00173611111111111</c:v>
+                </c:pt>
+                <c:pt idx="15" c:formatCode="h:mm:ss">
+                  <c:v>0.00185185185185185</c:v>
+                </c:pt>
+                <c:pt idx="16" c:formatCode="h:mm:ss">
+                  <c:v>0.00196759259259259</c:v>
+                </c:pt>
+                <c:pt idx="17" c:formatCode="h:mm:ss">
+                  <c:v>0.00208333333333333</c:v>
+                </c:pt>
+                <c:pt idx="18" c:formatCode="h:mm:ss">
+                  <c:v>0.00219907407407407</c:v>
+                </c:pt>
+                <c:pt idx="19" c:formatCode="h:mm:ss">
+                  <c:v>0.00231481481481482</c:v>
+                </c:pt>
+                <c:pt idx="20" c:formatCode="h:mm:ss">
+                  <c:v>0.00243055555555556</c:v>
+                </c:pt>
+                <c:pt idx="21" c:formatCode="h:mm:ss">
+                  <c:v>0.0025462962962963</c:v>
+                </c:pt>
+                <c:pt idx="22" c:formatCode="h:mm:ss">
+                  <c:v>0.00266203703703704</c:v>
+                </c:pt>
+                <c:pt idx="23" c:formatCode="h:mm:ss">
+                  <c:v>0.00277777777777778</c:v>
+                </c:pt>
+                <c:pt idx="24" c:formatCode="h:mm:ss">
+                  <c:v>0.00289351851851852</c:v>
+                </c:pt>
+                <c:pt idx="25" c:formatCode="h:mm:ss">
+                  <c:v>0.00300925925925926</c:v>
+                </c:pt>
+                <c:pt idx="26" c:formatCode="h:mm:ss">
+                  <c:v>0.003125</c:v>
+                </c:pt>
+                <c:pt idx="27" c:formatCode="h:mm:ss">
+                  <c:v>0.00324074074074074</c:v>
+                </c:pt>
+                <c:pt idx="28" c:formatCode="h:mm:ss">
+                  <c:v>0.00335648148148148</c:v>
+                </c:pt>
+                <c:pt idx="29" c:formatCode="h:mm:ss">
+                  <c:v>0.00347222222222222</c:v>
+                </c:pt>
+                <c:pt idx="30" c:formatCode="h:mm:ss">
+                  <c:v>0.00358796296296296</c:v>
+                </c:pt>
+                <c:pt idx="31" c:formatCode="h:mm:ss">
+                  <c:v>0.0037037037037037</c:v>
+                </c:pt>
+                <c:pt idx="32" c:formatCode="h:mm:ss">
+                  <c:v>0.00381944444444444</c:v>
+                </c:pt>
+                <c:pt idx="33" c:formatCode="h:mm:ss">
+                  <c:v>0.00393518518518519</c:v>
+                </c:pt>
+                <c:pt idx="34" c:formatCode="h:mm:ss">
+                  <c:v>0.00405092592592593</c:v>
+                </c:pt>
+                <c:pt idx="35" c:formatCode="h:mm:ss">
+                  <c:v>0.00416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="36" c:formatCode="h:mm:ss">
+                  <c:v>0.00428240740740741</c:v>
+                </c:pt>
+                <c:pt idx="37" c:formatCode="h:mm:ss">
+                  <c:v>0.00439814814814815</c:v>
+                </c:pt>
+                <c:pt idx="38" c:formatCode="h:mm:ss">
+                  <c:v>0.00451388888888889</c:v>
+                </c:pt>
+                <c:pt idx="39" c:formatCode="h:mm:ss">
+                  <c:v>0.00462962962962963</c:v>
+                </c:pt>
+                <c:pt idx="40" c:formatCode="h:mm:ss">
+                  <c:v>0.00474537037037037</c:v>
+                </c:pt>
+                <c:pt idx="41" c:formatCode="h:mm:ss">
+                  <c:v>0.00486111111111111</c:v>
+                </c:pt>
+                <c:pt idx="42" c:formatCode="h:mm:ss">
+                  <c:v>0.00497685185185185</c:v>
+                </c:pt>
+                <c:pt idx="43" c:formatCode="h:mm:ss">
+                  <c:v>0.00509259259259259</c:v>
+                </c:pt>
+                <c:pt idx="44" c:formatCode="h:mm:ss">
+                  <c:v>0.00520833333333333</c:v>
+                </c:pt>
+                <c:pt idx="45" c:formatCode="h:mm:ss">
+                  <c:v>0.00532407407407407</c:v>
+                </c:pt>
+                <c:pt idx="46" c:formatCode="h:mm:ss">
+                  <c:v>0.00543981481481481</c:v>
+                </c:pt>
+                <c:pt idx="47" c:formatCode="h:mm:ss">
+                  <c:v>0.00555555555555556</c:v>
+                </c:pt>
+                <c:pt idx="48" c:formatCode="h:mm:ss">
+                  <c:v>0.0056712962962963</c:v>
+                </c:pt>
+                <c:pt idx="49" c:formatCode="h:mm:ss">
+                  <c:v>0.00578703703703704</c:v>
+                </c:pt>
+                <c:pt idx="50" c:formatCode="h:mm:ss">
+                  <c:v>0.00590277777777778</c:v>
+                </c:pt>
+                <c:pt idx="51" c:formatCode="h:mm:ss">
+                  <c:v>0.00601851851851852</c:v>
+                </c:pt>
+                <c:pt idx="52" c:formatCode="h:mm:ss">
+                  <c:v>0.00613425925925926</c:v>
+                </c:pt>
+                <c:pt idx="53" c:formatCode="h:mm:ss">
+                  <c:v>0.00625</c:v>
+                </c:pt>
+                <c:pt idx="54" c:formatCode="h:mm:ss">
+                  <c:v>0.00636574074074074</c:v>
+                </c:pt>
+                <c:pt idx="55" c:formatCode="h:mm:ss">
+                  <c:v>0.00648148148148148</c:v>
+                </c:pt>
+                <c:pt idx="56" c:formatCode="h:mm:ss">
+                  <c:v>0.00659722222222222</c:v>
+                </c:pt>
+                <c:pt idx="57" c:formatCode="h:mm:ss">
+                  <c:v>0.00671296296296296</c:v>
+                </c:pt>
+                <c:pt idx="58" c:formatCode="h:mm:ss">
+                  <c:v>0.0068287037037037</c:v>
+                </c:pt>
+                <c:pt idx="59" c:formatCode="h:mm:ss">
+                  <c:v>0.00694444444444444</c:v>
+                </c:pt>
+                <c:pt idx="60" c:formatCode="h:mm:ss">
+                  <c:v>0.00706018518518518</c:v>
+                </c:pt>
+                <c:pt idx="61" c:formatCode="h:mm:ss">
+                  <c:v>0.00717592592592593</c:v>
+                </c:pt>
+                <c:pt idx="62" c:formatCode="h:mm:ss">
+                  <c:v>0.00729166666666667</c:v>
+                </c:pt>
+                <c:pt idx="63" c:formatCode="h:mm:ss">
+                  <c:v>0.00740740740740741</c:v>
+                </c:pt>
+                <c:pt idx="64" c:formatCode="h:mm:ss">
+                  <c:v>0.00752314814814815</c:v>
+                </c:pt>
+                <c:pt idx="65" c:formatCode="h:mm:ss">
+                  <c:v>0.00763888888888889</c:v>
+                </c:pt>
+                <c:pt idx="66" c:formatCode="h:mm:ss">
+                  <c:v>0.00775462962962963</c:v>
+                </c:pt>
+                <c:pt idx="67" c:formatCode="h:mm:ss">
+                  <c:v>0.00787037037037037</c:v>
+                </c:pt>
+                <c:pt idx="68" c:formatCode="h:mm:ss">
+                  <c:v>0.00798611111111111</c:v>
+                </c:pt>
+                <c:pt idx="69" c:formatCode="h:mm:ss">
+                  <c:v>0.00810185185185185</c:v>
+                </c:pt>
+                <c:pt idx="70" c:formatCode="h:mm:ss">
+                  <c:v>0.00821759259259259</c:v>
+                </c:pt>
+                <c:pt idx="71" c:formatCode="h:mm:ss">
+                  <c:v>0.00833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="72" c:formatCode="h:mm:ss">
+                  <c:v>0.00844907407407407</c:v>
+                </c:pt>
+                <c:pt idx="73" c:formatCode="h:mm:ss">
+                  <c:v>0.00856481481481482</c:v>
+                </c:pt>
+                <c:pt idx="74" c:formatCode="h:mm:ss">
+                  <c:v>0.00868055555555556</c:v>
+                </c:pt>
+                <c:pt idx="75" c:formatCode="h:mm:ss">
+                  <c:v>0.0087962962962963</c:v>
+                </c:pt>
+                <c:pt idx="76" c:formatCode="h:mm:ss">
+                  <c:v>0.00891203703703704</c:v>
+                </c:pt>
+                <c:pt idx="77" c:formatCode="h:mm:ss">
+                  <c:v>0.00902777777777778</c:v>
+                </c:pt>
+                <c:pt idx="78" c:formatCode="h:mm:ss">
+                  <c:v>0.00914351851851852</c:v>
+                </c:pt>
+                <c:pt idx="79" c:formatCode="h:mm:ss">
+                  <c:v>0.00925925925925926</c:v>
+                </c:pt>
+                <c:pt idx="80" c:formatCode="h:mm:ss">
+                  <c:v>0.009375</c:v>
+                </c:pt>
+                <c:pt idx="81" c:formatCode="h:mm:ss">
+                  <c:v>0.00949074074074074</c:v>
+                </c:pt>
+                <c:pt idx="82" c:formatCode="h:mm:ss">
+                  <c:v>0.00960648148148148</c:v>
+                </c:pt>
+                <c:pt idx="83" c:formatCode="h:mm:ss">
+                  <c:v>0.00972222222222222</c:v>
+                </c:pt>
+                <c:pt idx="84" c:formatCode="h:mm:ss">
+                  <c:v>0.00983796296296296</c:v>
+                </c:pt>
+                <c:pt idx="85" c:formatCode="h:mm:ss">
+                  <c:v>0.0099537037037037</c:v>
+                </c:pt>
+                <c:pt idx="86" c:formatCode="h:mm:ss">
+                  <c:v>0.0100694444444444</c:v>
+                </c:pt>
+                <c:pt idx="87" c:formatCode="h:mm:ss">
+                  <c:v>0.0101851851851852</c:v>
+                </c:pt>
+                <c:pt idx="88" c:formatCode="h:mm:ss">
+                  <c:v>0.0103009259259259</c:v>
+                </c:pt>
+                <c:pt idx="89" c:formatCode="h:mm:ss">
+                  <c:v>0.0104166666666667</c:v>
+                </c:pt>
+                <c:pt idx="90" c:formatCode="h:mm:ss">
+                  <c:v>0.0105324074074074</c:v>
+                </c:pt>
+                <c:pt idx="91" c:formatCode="h:mm:ss">
+                  <c:v>0.0106481481481481</c:v>
+                </c:pt>
+                <c:pt idx="92" c:formatCode="h:mm:ss">
+                  <c:v>0.0107638888888889</c:v>
+                </c:pt>
+                <c:pt idx="93" c:formatCode="h:mm:ss">
+                  <c:v>0.0108796296296296</c:v>
+                </c:pt>
+                <c:pt idx="94" c:formatCode="h:mm:ss">
+                  <c:v>0.0109953703703704</c:v>
+                </c:pt>
+                <c:pt idx="95" c:formatCode="h:mm:ss">
+                  <c:v>0.0111111111111111</c:v>
+                </c:pt>
+                <c:pt idx="96" c:formatCode="h:mm:ss">
+                  <c:v>0.0112268518518519</c:v>
+                </c:pt>
+                <c:pt idx="97" c:formatCode="h:mm:ss">
+                  <c:v>0.0113425925925926</c:v>
+                </c:pt>
+                <c:pt idx="98" c:formatCode="h:mm:ss">
+                  <c:v>0.0114583333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$6:$E$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>6.69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.43</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.92</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.39</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.42</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.02</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.41</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.44</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.35</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.72</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.35</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.74</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.71</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.68</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.05</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.77</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.74</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.54</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.76</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.49</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.02</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.03</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.45</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.79</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.57</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.87</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.39</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.66</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.28</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.81</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.03</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.03</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.71</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.06</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.03</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.32</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.47</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.62</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.64</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.89</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.89</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9.93</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9.46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9.75</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>10.14</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9.59</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9.58</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>10.03</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>9.95</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9.76</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>10.19</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>10.07</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9.82</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>9.69</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>10.23</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>11.19</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>11.19</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>11.53</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>11.49</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>12.02</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>12.35</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>13.15</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>13.85</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>13.56</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>14.65</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>14.68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>14.96</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>15.14</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>15.48</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>15.46</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>15.15</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>15.09</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>14.95</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>14.98</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>15.27</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>15.62</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>16.16</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>15.49</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>15.78</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>16.42</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>16.05</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>15.85</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>15.49</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>15.42</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>15.11</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>15.01</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>14.45</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>13.63</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>13.54</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>13.56</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>13.41</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>13.07</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>13.19</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>13.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="500922388"/>
+        <c:axId val="837251161"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="500922388"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="837251161"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="837251161"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="500922388"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>122555</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>122555</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="12534900" y="1402715"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -489,21 +2565,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AI106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="O100" sqref="O100"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74:A77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -511,7 +2587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -525,7 +2601,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -584,57 +2660,57 @@
         <v>23</v>
       </c>
       <c r="U4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="AC4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="AD4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="AE4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="AF4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Z4" s="2" t="s">
+      <c r="AG4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AA4" s="2" t="s">
+      <c r="AH4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AB4" s="2" t="s">
+      <c r="AI4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AC4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI4" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>1.1574074074074073E-4</v>
+        <v>0.000115740740740741</v>
       </c>
       <c r="B6" s="1">
-        <v>6.0011574074074071E-2</v>
+        <v>0.0600115740740741</v>
       </c>
       <c r="C6">
         <v>90</v>
@@ -682,12 +2758,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>2.3148148148148146E-4</v>
+        <v>0.000231481481481481</v>
       </c>
       <c r="B7" s="1">
-        <v>6.0127314814814814E-2</v>
+        <v>0.0601273148148148</v>
       </c>
       <c r="C7">
         <v>82</v>
@@ -735,12 +2811,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>3.4722222222222224E-4</v>
+        <v>0.000347222222222222</v>
       </c>
       <c r="B8" s="1">
-        <v>6.0243055555555557E-2</v>
+        <v>0.0602430555555556</v>
       </c>
       <c r="C8">
         <v>81</v>
@@ -788,12 +2864,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>4.6296296296296293E-4</v>
+        <v>0.000462962962962963</v>
       </c>
       <c r="B9" s="1">
-        <v>6.0358796296296292E-2</v>
+        <v>0.0603587962962963</v>
       </c>
       <c r="C9">
         <v>78</v>
@@ -841,12 +2917,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
-        <v>5.7870370370370378E-4</v>
+        <v>0.000578703703703704</v>
       </c>
       <c r="B10" s="1">
-        <v>6.0474537037037035E-2</v>
+        <v>0.060474537037037</v>
       </c>
       <c r="C10">
         <v>83</v>
@@ -894,15 +2970,15 @@
         <v>41</v>
       </c>
       <c r="S10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>6.9444444444444447E-4</v>
+        <v>0.000694444444444444</v>
       </c>
       <c r="B11" s="1">
-        <v>6.0590277777777778E-2</v>
+        <v>0.0605902777777778</v>
       </c>
       <c r="C11">
         <v>86</v>
@@ -950,12 +3026,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>8.1018518518518516E-4</v>
+        <v>0.000810185185185185</v>
       </c>
       <c r="B12" s="1">
-        <v>6.0706018518518513E-2</v>
+        <v>0.0607060185185185</v>
       </c>
       <c r="C12">
         <v>91</v>
@@ -994,7 +3070,7 @@
         <v>1965</v>
       </c>
       <c r="O12">
-        <v>4.6399999999999997</v>
+        <v>4.64</v>
       </c>
       <c r="P12">
         <v>106</v>
@@ -1003,12 +3079,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>9.2592592592592585E-4</v>
+        <v>0.000925925925925926</v>
       </c>
       <c r="B13" s="1">
-        <v>6.0821759259259256E-2</v>
+        <v>0.0608217592592593</v>
       </c>
       <c r="C13">
         <v>82</v>
@@ -1047,7 +3123,7 @@
         <v>2245</v>
       </c>
       <c r="O13">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="P13">
         <v>106</v>
@@ -1056,12 +3132,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>1.0416666666666667E-3</v>
+        <v>0.00104166666666667</v>
       </c>
       <c r="B14" s="1">
-        <v>6.0937499999999999E-2</v>
+        <v>0.0609375</v>
       </c>
       <c r="C14">
         <v>77</v>
@@ -1109,12 +3185,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>1.1574074074074073E-3</v>
+        <v>0.00115740740740741</v>
       </c>
       <c r="B15" s="1">
-        <v>6.1053240740740734E-2</v>
+        <v>0.0610532407407407</v>
       </c>
       <c r="C15">
         <v>76</v>
@@ -1162,12 +3238,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>1.2731481481481483E-3</v>
+        <v>0.00127314814814815</v>
       </c>
       <c r="B16" s="1">
-        <v>6.1168981481481477E-2</v>
+        <v>0.0611689814814815</v>
       </c>
       <c r="C16">
         <v>83</v>
@@ -1206,7 +3282,7 @@
         <v>2177</v>
       </c>
       <c r="O16">
-        <v>4.1900000000000004</v>
+        <v>4.19</v>
       </c>
       <c r="P16">
         <v>111</v>
@@ -1215,12 +3291,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
-        <v>1.3888888888888889E-3</v>
+        <v>0.00138888888888889</v>
       </c>
       <c r="B17" s="1">
-        <v>6.128472222222222E-2</v>
+        <v>0.0612847222222222</v>
       </c>
       <c r="C17">
         <v>84</v>
@@ -1259,7 +3335,7 @@
         <v>2051</v>
       </c>
       <c r="O17">
-        <v>4.4400000000000004</v>
+        <v>4.44</v>
       </c>
       <c r="P17">
         <v>107</v>
@@ -1268,12 +3344,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
-        <v>1.5046296296296294E-3</v>
+        <v>0.00150462962962963</v>
       </c>
       <c r="B18" s="1">
-        <v>6.1400462962962969E-2</v>
+        <v>0.061400462962963</v>
       </c>
       <c r="C18">
         <v>81</v>
@@ -1321,12 +3397,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
-        <v>1.6203703703703703E-3</v>
+        <v>0.00162037037037037</v>
       </c>
       <c r="B19" s="1">
-        <v>6.1516203703703698E-2</v>
+        <v>0.0615162037037037</v>
       </c>
       <c r="C19">
         <v>77</v>
@@ -1374,12 +3450,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
-        <v>1.736111111111111E-3</v>
+        <v>0.00173611111111111</v>
       </c>
       <c r="B20" s="1">
-        <v>6.1631944444444448E-2</v>
+        <v>0.0616319444444444</v>
       </c>
       <c r="C20">
         <v>76</v>
@@ -1427,12 +3503,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
-        <v>1.8518518518518517E-3</v>
+        <v>0.00185185185185185</v>
       </c>
       <c r="B21" s="1">
-        <v>6.174768518518519E-2</v>
+        <v>0.0617476851851852</v>
       </c>
       <c r="C21">
         <v>88</v>
@@ -1480,12 +3556,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
-        <v>1.9675925925925928E-3</v>
+        <v>0.00196759259259259</v>
       </c>
       <c r="B22" s="1">
-        <v>6.1863425925925926E-2</v>
+        <v>0.0618634259259259</v>
       </c>
       <c r="C22">
         <v>90</v>
@@ -1533,12 +3609,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
-        <v>2.0833333333333333E-3</v>
+        <v>0.00208333333333333</v>
       </c>
       <c r="B23" s="1">
-        <v>6.1979166666666669E-2</v>
+        <v>0.0619791666666667</v>
       </c>
       <c r="C23">
         <v>77</v>
@@ -1586,12 +3662,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
-        <v>2.1990740740740742E-3</v>
+        <v>0.00219907407407407</v>
       </c>
       <c r="B24" s="1">
-        <v>6.2094907407407411E-2</v>
+        <v>0.0620949074074074</v>
       </c>
       <c r="C24">
         <v>78</v>
@@ -1639,12 +3715,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
-        <v>2.3148148148148151E-3</v>
+        <v>0.00231481481481482</v>
       </c>
       <c r="B25" s="1">
-        <v>6.2210648148148147E-2</v>
+        <v>0.0622106481481481</v>
       </c>
       <c r="C25">
         <v>76</v>
@@ -1692,12 +3768,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17">
       <c r="A26" s="1">
-        <v>2.4305555555555556E-3</v>
+        <v>0.00243055555555556</v>
       </c>
       <c r="B26" s="1">
-        <v>6.232638888888889E-2</v>
+        <v>0.0623263888888889</v>
       </c>
       <c r="C26">
         <v>76</v>
@@ -1745,12 +3821,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17">
       <c r="A27" s="1">
-        <v>2.5462962962962961E-3</v>
+        <v>0.0025462962962963</v>
       </c>
       <c r="B27" s="1">
-        <v>6.2442129629629632E-2</v>
+        <v>0.0624421296296296</v>
       </c>
       <c r="C27">
         <v>77</v>
@@ -1798,12 +3874,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17">
       <c r="A28" s="1">
-        <v>2.6620370370370374E-3</v>
+        <v>0.00266203703703704</v>
       </c>
       <c r="B28" s="1">
-        <v>6.2557870370370375E-2</v>
+        <v>0.0625578703703704</v>
       </c>
       <c r="C28">
         <v>83</v>
@@ -1851,12 +3927,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17">
       <c r="A29" s="1">
-        <v>2.7777777777777779E-3</v>
+        <v>0.00277777777777778</v>
       </c>
       <c r="B29" s="1">
-        <v>6.267361111111111E-2</v>
+        <v>0.0626736111111111</v>
       </c>
       <c r="C29">
         <v>85</v>
@@ -1904,12 +3980,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17">
       <c r="A30" s="1">
-        <v>2.8935185185185188E-3</v>
+        <v>0.00289351851851852</v>
       </c>
       <c r="B30" s="1">
-        <v>6.2789351851851846E-2</v>
+        <v>0.0627893518518518</v>
       </c>
       <c r="C30">
         <v>86</v>
@@ -1957,12 +4033,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17">
       <c r="A31" s="1">
-        <v>3.0092592592592588E-3</v>
+        <v>0.00300925925925926</v>
       </c>
       <c r="B31" s="1">
-        <v>6.2905092592592596E-2</v>
+        <v>0.0629050925925926</v>
       </c>
       <c r="C31">
         <v>86</v>
@@ -2010,12 +4086,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17">
       <c r="A32" s="1">
-        <v>3.1249999999999997E-3</v>
+        <v>0.003125</v>
       </c>
       <c r="B32" s="1">
-        <v>6.3020833333333331E-2</v>
+        <v>0.0630208333333333</v>
       </c>
       <c r="C32">
         <v>88</v>
@@ -2063,12 +4139,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17">
       <c r="A33" s="1">
-        <v>3.2407407407407406E-3</v>
+        <v>0.00324074074074074</v>
       </c>
       <c r="B33" s="1">
-        <v>6.3136574074074081E-2</v>
+        <v>0.0631365740740741</v>
       </c>
       <c r="C33">
         <v>83</v>
@@ -2116,12 +4192,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17">
       <c r="A34" s="1">
-        <v>3.3564814814814811E-3</v>
+        <v>0.00335648148148148</v>
       </c>
       <c r="B34" s="1">
-        <v>6.3252314814814817E-2</v>
+        <v>0.0632523148148148</v>
       </c>
       <c r="C34">
         <v>89</v>
@@ -2169,12 +4245,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19">
       <c r="A35" s="1">
-        <v>3.472222222222222E-3</v>
+        <v>0.00347222222222222</v>
       </c>
       <c r="B35" s="1">
-        <v>6.3368055555555566E-2</v>
+        <v>0.0633680555555556</v>
       </c>
       <c r="C35">
         <v>97</v>
@@ -2222,15 +4298,15 @@
         <v>37</v>
       </c>
       <c r="S35" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" s="1">
-        <v>3.5879629629629629E-3</v>
+        <v>0.00358796296296296</v>
       </c>
       <c r="B36" s="1">
-        <v>6.3483796296296302E-2</v>
+        <v>0.0634837962962963</v>
       </c>
       <c r="C36">
         <v>101</v>
@@ -2242,7 +4318,7 @@
         <v>7.66</v>
       </c>
       <c r="F36">
-        <v>4.0199999999999996</v>
+        <v>4.02</v>
       </c>
       <c r="G36">
         <v>57</v>
@@ -2269,7 +4345,7 @@
         <v>1799</v>
       </c>
       <c r="O36">
-        <v>5.0599999999999996</v>
+        <v>5.06</v>
       </c>
       <c r="P36">
         <v>112</v>
@@ -2278,12 +4354,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17">
       <c r="A37" s="1">
-        <v>3.7037037037037034E-3</v>
+        <v>0.0037037037037037</v>
       </c>
       <c r="B37" s="1">
-        <v>6.3599537037037038E-2</v>
+        <v>0.063599537037037</v>
       </c>
       <c r="C37">
         <v>103</v>
@@ -2292,10 +4368,10 @@
         <v>79</v>
       </c>
       <c r="E37">
-        <v>8.2799999999999994</v>
+        <v>8.28</v>
       </c>
       <c r="F37">
-        <v>4.3499999999999996</v>
+        <v>4.35</v>
       </c>
       <c r="G37">
         <v>57</v>
@@ -2331,12 +4407,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17">
       <c r="A38" s="1">
-        <v>3.8194444444444443E-3</v>
+        <v>0.00381944444444444</v>
       </c>
       <c r="B38" s="1">
-        <v>6.3715277777777787E-2</v>
+        <v>0.0637152777777778</v>
       </c>
       <c r="C38">
         <v>105</v>
@@ -2384,12 +4460,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17">
       <c r="A39" s="1">
-        <v>3.9351851851851857E-3</v>
+        <v>0.00393518518518519</v>
       </c>
       <c r="B39" s="1">
-        <v>6.3831018518518523E-2</v>
+        <v>0.0638310185185185</v>
       </c>
       <c r="C39">
         <v>105</v>
@@ -2398,7 +4474,7 @@
         <v>85</v>
       </c>
       <c r="E39">
-        <v>9.0299999999999994</v>
+        <v>9.03</v>
       </c>
       <c r="F39">
         <v>4.75</v>
@@ -2437,12 +4513,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17">
       <c r="A40" s="1">
-        <v>4.0509259259259257E-3</v>
+        <v>0.00405092592592593</v>
       </c>
       <c r="B40" s="1">
-        <v>6.3946759259259259E-2</v>
+        <v>0.0639467592592593</v>
       </c>
       <c r="C40">
         <v>107</v>
@@ -2451,7 +4527,7 @@
         <v>83</v>
       </c>
       <c r="E40">
-        <v>9.0299999999999994</v>
+        <v>9.03</v>
       </c>
       <c r="F40">
         <v>4.74</v>
@@ -2490,12 +4566,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17">
       <c r="A41" s="1">
-        <v>4.1666666666666666E-3</v>
+        <v>0.00416666666666667</v>
       </c>
       <c r="B41" s="1">
-        <v>6.4062500000000008E-2</v>
+        <v>0.0640625</v>
       </c>
       <c r="C41">
         <v>106</v>
@@ -2504,7 +4580,7 @@
         <v>81</v>
       </c>
       <c r="E41">
-        <v>8.7100000000000009</v>
+        <v>8.71</v>
       </c>
       <c r="F41">
         <v>4.58</v>
@@ -2543,12 +4619,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17">
       <c r="A42" s="1">
-        <v>4.2824074074074075E-3</v>
+        <v>0.00428240740740741</v>
       </c>
       <c r="B42" s="1">
-        <v>6.4178240740740744E-2</v>
+        <v>0.0641782407407407</v>
       </c>
       <c r="C42">
         <v>104</v>
@@ -2596,12 +4672,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17">
       <c r="A43" s="1">
-        <v>4.3981481481481484E-3</v>
+        <v>0.00439814814814815</v>
       </c>
       <c r="B43" s="1">
-        <v>6.429398148148148E-2</v>
+        <v>0.0642939814814815</v>
       </c>
       <c r="C43">
         <v>105</v>
@@ -2610,7 +4686,7 @@
         <v>85</v>
       </c>
       <c r="E43">
-        <v>9.0299999999999994</v>
+        <v>9.03</v>
       </c>
       <c r="F43">
         <v>4.75</v>
@@ -2649,12 +4725,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17">
       <c r="A44" s="1">
-        <v>4.5138888888888893E-3</v>
+        <v>0.00451388888888889</v>
       </c>
       <c r="B44" s="1">
-        <v>6.4409722222222229E-2</v>
+        <v>0.0644097222222222</v>
       </c>
       <c r="C44">
         <v>108</v>
@@ -2666,7 +4742,7 @@
         <v>9.32</v>
       </c>
       <c r="F44">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="G44">
         <v>58</v>
@@ -2702,12 +4778,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17">
       <c r="A45" s="1">
-        <v>4.6296296296296302E-3</v>
+        <v>0.00462962962962963</v>
       </c>
       <c r="B45" s="1">
-        <v>6.4525462962962965E-2</v>
+        <v>0.064525462962963</v>
       </c>
       <c r="C45">
         <v>108</v>
@@ -2716,7 +4792,7 @@
         <v>87</v>
       </c>
       <c r="E45">
-        <v>9.4700000000000006</v>
+        <v>9.47</v>
       </c>
       <c r="F45">
         <v>4.97</v>
@@ -2755,12 +4831,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17">
       <c r="A46" s="1">
-        <v>4.7453703703703703E-3</v>
+        <v>0.00474537037037037</v>
       </c>
       <c r="B46" s="1">
-        <v>6.4641203703703701E-2</v>
+        <v>0.0646412037037037</v>
       </c>
       <c r="C46">
         <v>109</v>
@@ -2769,10 +4845,10 @@
         <v>88</v>
       </c>
       <c r="E46">
-        <v>9.6199999999999992</v>
+        <v>9.62</v>
       </c>
       <c r="F46">
-        <v>5.0599999999999996</v>
+        <v>5.06</v>
       </c>
       <c r="G46">
         <v>58</v>
@@ -2808,12 +4884,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17">
       <c r="A47" s="1">
-        <v>4.8611111111111112E-3</v>
+        <v>0.00486111111111111</v>
       </c>
       <c r="B47" s="1">
-        <v>6.475694444444445E-2</v>
+        <v>0.0647569444444445</v>
       </c>
       <c r="C47">
         <v>109</v>
@@ -2825,7 +4901,7 @@
         <v>9.64</v>
       </c>
       <c r="F47">
-        <v>5.0599999999999996</v>
+        <v>5.06</v>
       </c>
       <c r="G47">
         <v>58</v>
@@ -2861,12 +4937,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17">
       <c r="A48" s="1">
-        <v>4.9768518518518521E-3</v>
+        <v>0.00497685185185185</v>
       </c>
       <c r="B48" s="1">
-        <v>6.4872685185185186E-2</v>
+        <v>0.0648726851851852</v>
       </c>
       <c r="C48">
         <v>108</v>
@@ -2914,12 +4990,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17">
       <c r="A49" s="1">
-        <v>5.0925925925925921E-3</v>
+        <v>0.00509259259259259</v>
       </c>
       <c r="B49" s="1">
-        <v>6.4988425925925922E-2</v>
+        <v>0.0649884259259259</v>
       </c>
       <c r="C49">
         <v>110</v>
@@ -2967,12 +5043,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17">
       <c r="A50" s="1">
-        <v>5.208333333333333E-3</v>
+        <v>0.00520833333333333</v>
       </c>
       <c r="B50" s="1">
-        <v>6.5104166666666671E-2</v>
+        <v>0.0651041666666667</v>
       </c>
       <c r="C50">
         <v>110</v>
@@ -3020,12 +5096,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17">
       <c r="A51" s="1">
-        <v>5.3240740740740748E-3</v>
+        <v>0.00532407407407407</v>
       </c>
       <c r="B51" s="1">
-        <v>6.5219907407407407E-2</v>
+        <v>0.0652199074074074</v>
       </c>
       <c r="C51">
         <v>110</v>
@@ -3034,7 +5110,7 @@
         <v>85</v>
       </c>
       <c r="E51">
-        <v>9.4600000000000009</v>
+        <v>9.46</v>
       </c>
       <c r="F51">
         <v>4.97</v>
@@ -3073,12 +5149,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17">
       <c r="A52" s="1">
-        <v>5.4398148148148149E-3</v>
+        <v>0.00543981481481481</v>
       </c>
       <c r="B52" s="1">
-        <v>6.5335648148148143E-2</v>
+        <v>0.0653356481481481</v>
       </c>
       <c r="C52">
         <v>114</v>
@@ -3126,12 +5202,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17">
       <c r="A53" s="1">
-        <v>5.5555555555555558E-3</v>
+        <v>0.00555555555555556</v>
       </c>
       <c r="B53" s="1">
-        <v>6.5451388888888892E-2</v>
+        <v>0.0654513888888889</v>
       </c>
       <c r="C53">
         <v>116</v>
@@ -3179,12 +5255,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17">
       <c r="A54" s="1">
-        <v>5.6712962962962958E-3</v>
+        <v>0.0056712962962963</v>
       </c>
       <c r="B54" s="1">
-        <v>6.5567129629629628E-2</v>
+        <v>0.0655671296296296</v>
       </c>
       <c r="C54">
         <v>114</v>
@@ -3232,12 +5308,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17">
       <c r="A55" s="1">
-        <v>5.7870370370370376E-3</v>
+        <v>0.00578703703703704</v>
       </c>
       <c r="B55" s="1">
-        <v>6.5682870370370364E-2</v>
+        <v>0.0656828703703704</v>
       </c>
       <c r="C55">
         <v>110</v>
@@ -3285,12 +5361,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17">
       <c r="A56" s="1">
-        <v>5.9027777777777776E-3</v>
+        <v>0.00590277777777778</v>
       </c>
       <c r="B56" s="1">
-        <v>6.5798611111111113E-2</v>
+        <v>0.0657986111111111</v>
       </c>
       <c r="C56">
         <v>112</v>
@@ -3299,7 +5375,7 @@
         <v>88</v>
       </c>
       <c r="E56">
-        <v>10.029999999999999</v>
+        <v>10.03</v>
       </c>
       <c r="F56">
         <v>5.27</v>
@@ -3338,12 +5414,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17">
       <c r="A57" s="1">
-        <v>6.0185185185185177E-3</v>
+        <v>0.00601851851851852</v>
       </c>
       <c r="B57" s="1">
-        <v>6.5914351851851849E-2</v>
+        <v>0.0659143518518518</v>
       </c>
       <c r="C57">
         <v>115</v>
@@ -3352,7 +5428,7 @@
         <v>85</v>
       </c>
       <c r="E57">
-        <v>9.9499999999999993</v>
+        <v>9.95</v>
       </c>
       <c r="F57">
         <v>5.23</v>
@@ -3391,12 +5467,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17">
       <c r="A58" s="1">
-        <v>6.1342592592592594E-3</v>
+        <v>0.00613425925925926</v>
       </c>
       <c r="B58" s="1">
-        <v>6.6030092592592585E-2</v>
+        <v>0.0660300925925926</v>
       </c>
       <c r="C58">
         <v>112</v>
@@ -3444,12 +5520,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17">
       <c r="A59" s="1">
-        <v>6.2499999999999995E-3</v>
+        <v>0.00625</v>
       </c>
       <c r="B59" s="1">
-        <v>6.6145833333333334E-2</v>
+        <v>0.0661458333333333</v>
       </c>
       <c r="C59">
         <v>115</v>
@@ -3497,12 +5573,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17">
       <c r="A60" s="1">
-        <v>6.3657407407407404E-3</v>
+        <v>0.00636574074074074</v>
       </c>
       <c r="B60" s="1">
-        <v>6.626157407407407E-2</v>
+        <v>0.0662615740740741</v>
       </c>
       <c r="C60">
         <v>116</v>
@@ -3550,12 +5626,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17">
       <c r="A61" s="1">
-        <v>6.4814814814814813E-3</v>
+        <v>0.00648148148148148</v>
       </c>
       <c r="B61" s="1">
-        <v>6.6377314814814806E-2</v>
+        <v>0.0663773148148148</v>
       </c>
       <c r="C61">
         <v>115</v>
@@ -3603,12 +5679,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17">
       <c r="A62" s="1">
-        <v>6.5972222222222222E-3</v>
+        <v>0.00659722222222222</v>
       </c>
       <c r="B62" s="1">
-        <v>6.6493055555555555E-2</v>
+        <v>0.0664930555555556</v>
       </c>
       <c r="C62">
         <v>114</v>
@@ -3656,12 +5732,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17">
       <c r="A63" s="1">
-        <v>6.7129629629629622E-3</v>
+        <v>0.00671296296296296</v>
       </c>
       <c r="B63" s="1">
-        <v>6.6608796296296291E-2</v>
+        <v>0.0666087962962963</v>
       </c>
       <c r="C63">
         <v>117</v>
@@ -3709,12 +5785,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17">
       <c r="A64" s="1">
-        <v>6.828703703703704E-3</v>
+        <v>0.0068287037037037</v>
       </c>
       <c r="B64" s="1">
-        <v>6.6724537037037041E-2</v>
+        <v>0.066724537037037</v>
       </c>
       <c r="C64">
         <v>122</v>
@@ -3762,12 +5838,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17">
       <c r="A65" s="1">
-        <v>6.9444444444444441E-3</v>
+        <v>0.00694444444444444</v>
       </c>
       <c r="B65" s="1">
-        <v>6.6840277777777776E-2</v>
+        <v>0.0668402777777778</v>
       </c>
       <c r="C65">
         <v>120</v>
@@ -3815,12 +5891,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19">
       <c r="A66" s="1">
-        <v>7.0601851851851841E-3</v>
+        <v>0.00706018518518518</v>
       </c>
       <c r="B66" s="1">
-        <v>6.6956018518518512E-2</v>
+        <v>0.0669560185185185</v>
       </c>
       <c r="C66">
         <v>123</v>
@@ -3868,15 +5944,15 @@
         <v>33</v>
       </c>
       <c r="S66" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
       <c r="A67" s="1">
-        <v>7.1759259259259259E-3</v>
+        <v>0.00717592592592593</v>
       </c>
       <c r="B67" s="1">
-        <v>6.7071759259259262E-2</v>
+        <v>0.0670717592592593</v>
       </c>
       <c r="C67">
         <v>126</v>
@@ -3924,12 +6000,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17">
       <c r="A68" s="1">
-        <v>7.2916666666666659E-3</v>
+        <v>0.00729166666666667</v>
       </c>
       <c r="B68" s="1">
-        <v>6.7187499999999997E-2</v>
+        <v>0.0671875</v>
       </c>
       <c r="C68">
         <v>132</v>
@@ -3977,12 +6053,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17">
       <c r="A69" s="1">
-        <v>7.4074074074074068E-3</v>
+        <v>0.00740740740740741</v>
       </c>
       <c r="B69" s="1">
-        <v>6.7303240740740733E-2</v>
+        <v>0.0673032407407407</v>
       </c>
       <c r="C69">
         <v>136</v>
@@ -4030,12 +6106,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17">
       <c r="A70" s="1">
-        <v>7.5231481481481477E-3</v>
+        <v>0.00752314814814815</v>
       </c>
       <c r="B70" s="1">
-        <v>6.7418981481481483E-2</v>
+        <v>0.0674189814814815</v>
       </c>
       <c r="C70">
         <v>138</v>
@@ -4083,12 +6159,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17">
       <c r="A71" s="1">
-        <v>7.6388888888888886E-3</v>
+        <v>0.00763888888888889</v>
       </c>
       <c r="B71" s="1">
-        <v>6.7534722222222218E-2</v>
+        <v>0.0675347222222222</v>
       </c>
       <c r="C71">
         <v>141</v>
@@ -4136,12 +6212,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17">
       <c r="A72" s="1">
-        <v>7.7546296296296287E-3</v>
+        <v>0.00775462962962963</v>
       </c>
       <c r="B72" s="1">
-        <v>6.7650462962962968E-2</v>
+        <v>0.067650462962963</v>
       </c>
       <c r="C72">
         <v>143</v>
@@ -4180,7 +6256,7 @@
         <v>1014</v>
       </c>
       <c r="O72">
-        <v>8.9600000000000009</v>
+        <v>8.96</v>
       </c>
       <c r="P72">
         <v>85</v>
@@ -4189,12 +6265,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19">
       <c r="A73" s="1">
-        <v>7.8703703703703713E-3</v>
+        <v>0.00787037037037037</v>
       </c>
       <c r="B73" s="1">
-        <v>6.7766203703703703E-2</v>
+        <v>0.0677662037037037</v>
       </c>
       <c r="C73">
         <v>147</v>
@@ -4242,15 +6318,15 @@
         <v>34</v>
       </c>
       <c r="S73" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
       <c r="A74" s="1">
-        <v>7.9861111111111122E-3</v>
+        <v>0.00798611111111111</v>
       </c>
       <c r="B74" s="1">
-        <v>6.7881944444444439E-2</v>
+        <v>0.0678819444444444</v>
       </c>
       <c r="C74">
         <v>148</v>
@@ -4289,7 +6365,7 @@
         <v>936</v>
       </c>
       <c r="O74">
-        <v>9.6999999999999993</v>
+        <v>9.7</v>
       </c>
       <c r="P74">
         <v>89</v>
@@ -4298,12 +6374,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17">
       <c r="A75" s="1">
-        <v>8.1018518518518514E-3</v>
+        <v>0.00810185185185185</v>
       </c>
       <c r="B75" s="1">
-        <v>6.7997685185185189E-2</v>
+        <v>0.0679976851851852</v>
       </c>
       <c r="C75">
         <v>151</v>
@@ -4351,12 +6427,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17">
       <c r="A76" s="1">
-        <v>8.217592592592594E-3</v>
+        <v>0.00821759259259259</v>
       </c>
       <c r="B76" s="1">
-        <v>6.8113425925925938E-2</v>
+        <v>0.0681134259259259</v>
       </c>
       <c r="C76">
         <v>152</v>
@@ -4404,12 +6480,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:35">
       <c r="A77" s="1">
-        <v>8.3333333333333332E-3</v>
+        <v>0.00833333333333333</v>
       </c>
       <c r="B77" s="1">
-        <v>6.822916666666666E-2</v>
+        <v>0.0682291666666667</v>
       </c>
       <c r="C77">
         <v>153</v>
@@ -4421,7 +6497,7 @@
         <v>15.48</v>
       </c>
       <c r="F77">
-        <v>8.1300000000000008</v>
+        <v>8.13</v>
       </c>
       <c r="G77">
         <v>56</v>
@@ -4466,11 +6542,11 @@
       </c>
       <c r="W77" s="2">
         <f t="shared" si="0"/>
-        <v>15.065000000000001</v>
+        <v>15.065</v>
       </c>
       <c r="X77" s="2">
         <f t="shared" si="0"/>
-        <v>7.9124999999999996</v>
+        <v>7.9125</v>
       </c>
       <c r="Y77" s="2">
         <f t="shared" si="0"/>
@@ -4506,7 +6582,7 @@
       </c>
       <c r="AG77" s="2">
         <f t="shared" si="0"/>
-        <v>9.9550000000000001</v>
+        <v>9.955</v>
       </c>
       <c r="AH77" s="2">
         <f t="shared" si="0"/>
@@ -4517,12 +6593,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:35">
       <c r="A78" s="1">
-        <v>8.4490740740740741E-3</v>
+        <v>0.00844907407407407</v>
       </c>
       <c r="B78" s="1">
-        <v>6.834490740740741E-2</v>
+        <v>0.0683449074074074</v>
       </c>
       <c r="C78">
         <v>155</v>
@@ -4534,7 +6610,7 @@
         <v>15.46</v>
       </c>
       <c r="F78">
-        <v>8.1199999999999992</v>
+        <v>8.12</v>
       </c>
       <c r="G78">
         <v>55</v>
@@ -4561,7 +6637,7 @@
         <v>889</v>
       </c>
       <c r="O78">
-        <v>10.210000000000001</v>
+        <v>10.21</v>
       </c>
       <c r="P78">
         <v>92</v>
@@ -4585,12 +6661,12 @@
       <c r="AH78" s="2"/>
       <c r="AI78" s="2"/>
     </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:35">
       <c r="A79" s="1">
-        <v>8.564814814814815E-3</v>
+        <v>0.00856481481481482</v>
       </c>
       <c r="B79" s="1">
-        <v>6.8460648148148159E-2</v>
+        <v>0.0684606481481482</v>
       </c>
       <c r="C79">
         <v>155</v>
@@ -4653,12 +6729,12 @@
       <c r="AH79" s="2"/>
       <c r="AI79" s="2"/>
     </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:35">
       <c r="A80" s="1">
-        <v>8.6805555555555559E-3</v>
+        <v>0.00868055555555556</v>
       </c>
       <c r="B80" s="1">
-        <v>6.8576388888888895E-2</v>
+        <v>0.0685763888888889</v>
       </c>
       <c r="C80">
         <v>155</v>
@@ -4697,7 +6773,7 @@
         <v>911</v>
       </c>
       <c r="O80">
-        <v>9.9700000000000006</v>
+        <v>9.97</v>
       </c>
       <c r="P80">
         <v>96</v>
@@ -4715,11 +6791,11 @@
       </c>
       <c r="W80" s="2">
         <f t="shared" si="1"/>
-        <v>15.295000000000002</v>
+        <v>15.295</v>
       </c>
       <c r="X80" s="2">
         <f t="shared" si="1"/>
-        <v>8.0350000000000001</v>
+        <v>8.035</v>
       </c>
       <c r="Y80" s="2">
         <f t="shared" si="1"/>
@@ -4766,12 +6842,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:35">
       <c r="A81" s="1">
-        <v>8.7962962962962968E-3</v>
+        <v>0.0087962962962963</v>
       </c>
       <c r="B81" s="1">
-        <v>6.8692129629629631E-2</v>
+        <v>0.0686921296296296</v>
       </c>
       <c r="C81">
         <v>156</v>
@@ -4810,7 +6886,7 @@
         <v>919</v>
       </c>
       <c r="O81">
-        <v>9.8800000000000008</v>
+        <v>9.88</v>
       </c>
       <c r="P81">
         <v>96</v>
@@ -4834,12 +6910,12 @@
       <c r="AH81" s="2"/>
       <c r="AI81" s="2"/>
     </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:35">
       <c r="A82" s="1">
-        <v>8.9120370370370378E-3</v>
+        <v>0.00891203703703704</v>
       </c>
       <c r="B82" s="1">
-        <v>6.880787037037038E-2</v>
+        <v>0.0688078703703704</v>
       </c>
       <c r="C82">
         <v>160</v>
@@ -4902,12 +6978,12 @@
       <c r="AH82" s="2"/>
       <c r="AI82" s="2"/>
     </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:35">
       <c r="A83" s="1">
-        <v>9.0277777777777787E-3</v>
+        <v>0.00902777777777778</v>
       </c>
       <c r="B83" s="1">
-        <v>6.8923611111111116E-2</v>
+        <v>0.0689236111111111</v>
       </c>
       <c r="C83">
         <v>162</v>
@@ -4970,12 +7046,12 @@
       <c r="AH83" s="2"/>
       <c r="AI83" s="2"/>
     </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:35">
       <c r="A84" s="1">
-        <v>9.1435185185185178E-3</v>
+        <v>0.00914351851851852</v>
       </c>
       <c r="B84" s="1">
-        <v>6.9039351851851852E-2</v>
+        <v>0.0690393518518519</v>
       </c>
       <c r="C84">
         <v>165</v>
@@ -5038,12 +7114,12 @@
       <c r="AH84" s="2"/>
       <c r="AI84" s="2"/>
     </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:35">
       <c r="A85" s="1">
-        <v>9.2592592592592605E-3</v>
+        <v>0.00925925925925926</v>
       </c>
       <c r="B85" s="1">
-        <v>6.9155092592592601E-2</v>
+        <v>0.0691550925925926</v>
       </c>
       <c r="C85">
         <v>165</v>
@@ -5106,12 +7182,12 @@
       <c r="AH85" s="2"/>
       <c r="AI85" s="2"/>
     </row>
-    <row r="86" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:35">
       <c r="A86" s="1">
-        <v>9.3749999999999997E-3</v>
+        <v>0.009375</v>
       </c>
       <c r="B86" s="1">
-        <v>6.9270833333333337E-2</v>
+        <v>0.0692708333333333</v>
       </c>
       <c r="C86">
         <v>164</v>
@@ -5123,7 +7199,7 @@
         <v>15.62</v>
       </c>
       <c r="F86">
-        <v>8.2100000000000009</v>
+        <v>8.21</v>
       </c>
       <c r="G86">
         <v>58</v>
@@ -5174,12 +7250,12 @@
       <c r="AH86" s="2"/>
       <c r="AI86" s="2"/>
     </row>
-    <row r="87" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:35">
       <c r="A87" s="1">
-        <v>9.4907407407407406E-3</v>
+        <v>0.00949074074074074</v>
       </c>
       <c r="B87" s="1">
-        <v>6.9386574074074073E-2</v>
+        <v>0.0693865740740741</v>
       </c>
       <c r="C87">
         <v>165</v>
@@ -5227,7 +7303,7 @@
         <v>40</v>
       </c>
       <c r="S87" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="U87" s="2"/>
       <c r="V87" s="2"/>
@@ -5245,12 +7321,12 @@
       <c r="AH87" s="2"/>
       <c r="AI87" s="2"/>
     </row>
-    <row r="88" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:35">
       <c r="A88" s="1">
-        <v>9.6064814814814815E-3</v>
+        <v>0.00960648148148148</v>
       </c>
       <c r="B88" s="1">
-        <v>6.9502314814814822E-2</v>
+        <v>0.0695023148148148</v>
       </c>
       <c r="C88">
         <v>166</v>
@@ -5313,12 +7389,12 @@
       <c r="AH88" s="2"/>
       <c r="AI88" s="2"/>
     </row>
-    <row r="89" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:35">
       <c r="A89" s="1">
-        <v>9.7222222222222224E-3</v>
+        <v>0.00972222222222222</v>
       </c>
       <c r="B89" s="1">
-        <v>6.9618055555555558E-2</v>
+        <v>0.0696180555555556</v>
       </c>
       <c r="C89">
         <v>168</v>
@@ -5330,7 +7406,7 @@
         <v>15.78</v>
       </c>
       <c r="F89">
-        <v>8.2899999999999991</v>
+        <v>8.29</v>
       </c>
       <c r="G89">
         <v>57</v>
@@ -5381,12 +7457,12 @@
       <c r="AH89" s="2"/>
       <c r="AI89" s="2"/>
     </row>
-    <row r="90" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:35">
       <c r="A90" s="1">
-        <v>9.8379629629629633E-3</v>
+        <v>0.00983796296296296</v>
       </c>
       <c r="B90" s="1">
-        <v>6.9733796296296294E-2</v>
+        <v>0.0697337962962963</v>
       </c>
       <c r="C90">
         <v>169</v>
@@ -5395,10 +7471,10 @@
         <v>97</v>
       </c>
       <c r="E90">
-        <v>16.420000000000002</v>
+        <v>16.42</v>
       </c>
       <c r="F90">
-        <v>8.6300000000000008</v>
+        <v>8.63</v>
       </c>
       <c r="G90">
         <v>58</v>
@@ -5449,12 +7525,12 @@
       <c r="AH90" s="2"/>
       <c r="AI90" s="2"/>
     </row>
-    <row r="91" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:35">
       <c r="A91" s="1">
-        <v>9.9537037037037042E-3</v>
+        <v>0.0099537037037037</v>
       </c>
       <c r="B91" s="1">
-        <v>6.9849537037037043E-2</v>
+        <v>0.069849537037037</v>
       </c>
       <c r="C91">
         <v>169</v>
@@ -5517,12 +7593,12 @@
       <c r="AH91" s="2"/>
       <c r="AI91" s="2"/>
     </row>
-    <row r="92" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:35">
       <c r="A92" s="1">
-        <v>1.0069444444444445E-2</v>
+        <v>0.0100694444444444</v>
       </c>
       <c r="B92" s="1">
-        <v>6.9965277777777779E-2</v>
+        <v>0.0699652777777778</v>
       </c>
       <c r="C92">
         <v>169</v>
@@ -5579,11 +7655,11 @@
       </c>
       <c r="W92" s="2">
         <f t="shared" si="2"/>
-        <v>15.917999999999997</v>
+        <v>15.918</v>
       </c>
       <c r="X92" s="2">
         <f t="shared" si="2"/>
-        <v>8.3640000000000008</v>
+        <v>8.364</v>
       </c>
       <c r="Y92" s="2">
         <f t="shared" si="2"/>
@@ -5607,7 +7683,7 @@
       </c>
       <c r="AD92" s="2">
         <f t="shared" si="2"/>
-        <v>163.19999999999999</v>
+        <v>163.2</v>
       </c>
       <c r="AE92" s="2">
         <f t="shared" si="2"/>
@@ -5619,7 +7695,7 @@
       </c>
       <c r="AG92" s="2">
         <f t="shared" si="2"/>
-        <v>10.517999999999999</v>
+        <v>10.518</v>
       </c>
       <c r="AH92" s="2">
         <f t="shared" si="2"/>
@@ -5630,12 +7706,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="93" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17">
       <c r="A93" s="1">
-        <v>1.0185185185185184E-2</v>
+        <v>0.0101851851851852</v>
       </c>
       <c r="B93" s="1">
-        <v>7.0081018518518515E-2</v>
+        <v>0.0700810185185185</v>
       </c>
       <c r="C93">
         <v>169</v>
@@ -5683,12 +7759,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="94" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17">
       <c r="A94" s="1">
-        <v>1.0300925925925927E-2</v>
+        <v>0.0103009259259259</v>
       </c>
       <c r="B94" s="1">
-        <v>7.0196759259259264E-2</v>
+        <v>0.0701967592592593</v>
       </c>
       <c r="C94">
         <v>171</v>
@@ -5736,12 +7812,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="95" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17">
       <c r="A95" s="1">
-        <v>1.0416666666666666E-2</v>
+        <v>0.0104166666666667</v>
       </c>
       <c r="B95" s="1">
-        <v>7.03125E-2</v>
+        <v>0.0703125</v>
       </c>
       <c r="C95">
         <v>171</v>
@@ -5789,12 +7865,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="96" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17">
       <c r="A96" s="1">
-        <v>1.0532407407407407E-2</v>
+        <v>0.0105324074074074</v>
       </c>
       <c r="B96" s="1">
-        <v>7.0428240740740736E-2</v>
+        <v>0.0704282407407407</v>
       </c>
       <c r="C96">
         <v>167</v>
@@ -5842,12 +7918,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19">
       <c r="A97" s="1">
-        <v>1.064814814814815E-2</v>
+        <v>0.0106481481481481</v>
       </c>
       <c r="B97" s="1">
-        <v>7.0543981481481485E-2</v>
+        <v>0.0705439814814815</v>
       </c>
       <c r="C97">
         <v>161</v>
@@ -5886,7 +7962,7 @@
         <v>951</v>
       </c>
       <c r="O97">
-        <v>9.5500000000000007</v>
+        <v>9.55</v>
       </c>
       <c r="P97">
         <v>96</v>
@@ -5895,15 +7971,15 @@
         <v>33</v>
       </c>
       <c r="S97" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17">
       <c r="A98" s="1">
-        <v>1.0763888888888891E-2</v>
+        <v>0.0107638888888889</v>
       </c>
       <c r="B98" s="1">
-        <v>7.0659722222222221E-2</v>
+        <v>0.0706597222222222</v>
       </c>
       <c r="C98">
         <v>155</v>
@@ -5951,12 +8027,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17">
       <c r="A99" s="1">
-        <v>1.087962962962963E-2</v>
+        <v>0.0108796296296296</v>
       </c>
       <c r="B99" s="1">
-        <v>7.0775462962962957E-2</v>
+        <v>0.070775462962963</v>
       </c>
       <c r="C99">
         <v>150</v>
@@ -5995,7 +8071,7 @@
         <v>1015</v>
       </c>
       <c r="O99">
-        <v>8.9499999999999993</v>
+        <v>8.95</v>
       </c>
       <c r="P99">
         <v>99</v>
@@ -6004,12 +8080,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17">
       <c r="A100" s="1">
-        <v>1.0995370370370371E-2</v>
+        <v>0.0109953703703704</v>
       </c>
       <c r="B100" s="1">
-        <v>7.0891203703703706E-2</v>
+        <v>0.0708912037037037</v>
       </c>
       <c r="C100">
         <v>147</v>
@@ -6048,7 +8124,7 @@
         <v>1014</v>
       </c>
       <c r="O100">
-        <v>8.9600000000000009</v>
+        <v>8.96</v>
       </c>
       <c r="P100">
         <v>100</v>
@@ -6057,12 +8133,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17">
       <c r="A101" s="1">
-        <v>1.1111111111111112E-2</v>
+        <v>0.0111111111111111</v>
       </c>
       <c r="B101" s="1">
-        <v>7.1006944444444442E-2</v>
+        <v>0.0710069444444444</v>
       </c>
       <c r="C101">
         <v>144</v>
@@ -6110,12 +8186,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17">
       <c r="A102" s="1">
-        <v>1.1226851851851854E-2</v>
+        <v>0.0112268518518519</v>
       </c>
       <c r="B102" s="1">
-        <v>7.1122685185185178E-2</v>
+        <v>0.0711226851851852</v>
       </c>
       <c r="C102">
         <v>142</v>
@@ -6154,7 +8230,7 @@
         <v>1052</v>
       </c>
       <c r="O102">
-        <v>8.6300000000000008</v>
+        <v>8.63</v>
       </c>
       <c r="P102">
         <v>99</v>
@@ -6163,12 +8239,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:17">
       <c r="A103" s="1">
-        <v>1.1342592592592592E-2</v>
+        <v>0.0113425925925926</v>
       </c>
       <c r="B103" s="1">
-        <v>7.1238425925925927E-2</v>
+        <v>0.0712384259259259</v>
       </c>
       <c r="C103">
         <v>143</v>
@@ -6207,7 +8283,7 @@
         <v>1042</v>
       </c>
       <c r="O103">
-        <v>8.7100000000000009</v>
+        <v>8.71</v>
       </c>
       <c r="P103">
         <v>100</v>
@@ -6216,12 +8292,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17">
       <c r="A104" s="1">
-        <v>1.1458333333333334E-2</v>
+        <v>0.0114583333333333</v>
       </c>
       <c r="B104" s="1">
-        <v>7.1354166666666663E-2</v>
+        <v>0.0713541666666667</v>
       </c>
       <c r="C104">
         <v>140</v>
@@ -6260,7 +8336,7 @@
         <v>1054</v>
       </c>
       <c r="O104">
-        <v>8.6199999999999992</v>
+        <v>8.62</v>
       </c>
       <c r="P104">
         <v>104</v>
@@ -6269,36 +8345,46 @@
         <v>37</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/21Sept2013_Xining_Physioflow_X1X4/X4 at 2200.xlsx
+++ b/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/21Sept2013_Xining_Physioflow_X1X4/X4 at 2200.xlsx
@@ -1,22 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanju\Desktop\check\QT_VO2max_Data\Xining_VO2_QT_values_revisited_20June2019\VO2_Physioflow_Avg_Match_Watts_Dean\physioflow\21Sept2013_Xining_Physioflow_X1X4\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BFE716-F06A-4295-B684-1169B7BE6813}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="16391" windowHeight="5412"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>X4</t>
   </si>
@@ -155,18 +169,15 @@
   <si>
     <t>---------------</t>
   </si>
+  <si>
+    <t>rest co</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,353 +185,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -528,322 +202,36 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="35" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -855,7 +243,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -881,6 +268,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -891,10 +279,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0595080154781647"/>
-          <c:y val="0.181773997569866"/>
-          <c:w val="0.907739082365948"/>
-          <c:h val="0.605686512758202"/>
+          <c:x val="5.95080154781647E-2"/>
+          <c:y val="0.18177399756986601"/>
+          <c:w val="0.90773908236594802"/>
+          <c:h val="0.60568651275820196"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -915,311 +303,308 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$A$6:$A$104</c:f>
               <c:numCache>
                 <c:formatCode>h:mm:ss</c:formatCode>
                 <c:ptCount val="99"/>
-                <c:pt idx="0" c:formatCode="h:mm:ss">
-                  <c:v>0.000115740740740741</c:v>
-                </c:pt>
-                <c:pt idx="1" c:formatCode="h:mm:ss">
-                  <c:v>0.000231481481481481</c:v>
-                </c:pt>
-                <c:pt idx="2" c:formatCode="h:mm:ss">
-                  <c:v>0.000347222222222222</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="h:mm:ss">
-                  <c:v>0.000462962962962963</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="h:mm:ss">
-                  <c:v>0.000578703703703704</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="h:mm:ss">
-                  <c:v>0.000694444444444444</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="h:mm:ss">
-                  <c:v>0.000810185185185185</c:v>
-                </c:pt>
-                <c:pt idx="7" c:formatCode="h:mm:ss">
-                  <c:v>0.000925925925925926</c:v>
-                </c:pt>
-                <c:pt idx="8" c:formatCode="h:mm:ss">
-                  <c:v>0.00104166666666667</c:v>
-                </c:pt>
-                <c:pt idx="9" c:formatCode="h:mm:ss">
-                  <c:v>0.00115740740740741</c:v>
-                </c:pt>
-                <c:pt idx="10" c:formatCode="h:mm:ss">
-                  <c:v>0.00127314814814815</c:v>
-                </c:pt>
-                <c:pt idx="11" c:formatCode="h:mm:ss">
-                  <c:v>0.00138888888888889</c:v>
-                </c:pt>
-                <c:pt idx="12" c:formatCode="h:mm:ss">
-                  <c:v>0.00150462962962963</c:v>
-                </c:pt>
-                <c:pt idx="13" c:formatCode="h:mm:ss">
-                  <c:v>0.00162037037037037</c:v>
-                </c:pt>
-                <c:pt idx="14" c:formatCode="h:mm:ss">
-                  <c:v>0.00173611111111111</c:v>
-                </c:pt>
-                <c:pt idx="15" c:formatCode="h:mm:ss">
-                  <c:v>0.00185185185185185</c:v>
-                </c:pt>
-                <c:pt idx="16" c:formatCode="h:mm:ss">
-                  <c:v>0.00196759259259259</c:v>
-                </c:pt>
-                <c:pt idx="17" c:formatCode="h:mm:ss">
-                  <c:v>0.00208333333333333</c:v>
-                </c:pt>
-                <c:pt idx="18" c:formatCode="h:mm:ss">
-                  <c:v>0.00219907407407407</c:v>
-                </c:pt>
-                <c:pt idx="19" c:formatCode="h:mm:ss">
-                  <c:v>0.00231481481481482</c:v>
-                </c:pt>
-                <c:pt idx="20" c:formatCode="h:mm:ss">
-                  <c:v>0.00243055555555556</c:v>
-                </c:pt>
-                <c:pt idx="21" c:formatCode="h:mm:ss">
-                  <c:v>0.0025462962962963</c:v>
-                </c:pt>
-                <c:pt idx="22" c:formatCode="h:mm:ss">
-                  <c:v>0.00266203703703704</c:v>
-                </c:pt>
-                <c:pt idx="23" c:formatCode="h:mm:ss">
-                  <c:v>0.00277777777777778</c:v>
-                </c:pt>
-                <c:pt idx="24" c:formatCode="h:mm:ss">
-                  <c:v>0.00289351851851852</c:v>
-                </c:pt>
-                <c:pt idx="25" c:formatCode="h:mm:ss">
-                  <c:v>0.00300925925925926</c:v>
-                </c:pt>
-                <c:pt idx="26" c:formatCode="h:mm:ss">
-                  <c:v>0.003125</c:v>
-                </c:pt>
-                <c:pt idx="27" c:formatCode="h:mm:ss">
-                  <c:v>0.00324074074074074</c:v>
-                </c:pt>
-                <c:pt idx="28" c:formatCode="h:mm:ss">
-                  <c:v>0.00335648148148148</c:v>
-                </c:pt>
-                <c:pt idx="29" c:formatCode="h:mm:ss">
-                  <c:v>0.00347222222222222</c:v>
-                </c:pt>
-                <c:pt idx="30" c:formatCode="h:mm:ss">
-                  <c:v>0.00358796296296296</c:v>
-                </c:pt>
-                <c:pt idx="31" c:formatCode="h:mm:ss">
-                  <c:v>0.0037037037037037</c:v>
-                </c:pt>
-                <c:pt idx="32" c:formatCode="h:mm:ss">
-                  <c:v>0.00381944444444444</c:v>
-                </c:pt>
-                <c:pt idx="33" c:formatCode="h:mm:ss">
-                  <c:v>0.00393518518518519</c:v>
-                </c:pt>
-                <c:pt idx="34" c:formatCode="h:mm:ss">
-                  <c:v>0.00405092592592593</c:v>
-                </c:pt>
-                <c:pt idx="35" c:formatCode="h:mm:ss">
-                  <c:v>0.00416666666666667</c:v>
-                </c:pt>
-                <c:pt idx="36" c:formatCode="h:mm:ss">
-                  <c:v>0.00428240740740741</c:v>
-                </c:pt>
-                <c:pt idx="37" c:formatCode="h:mm:ss">
-                  <c:v>0.00439814814814815</c:v>
-                </c:pt>
-                <c:pt idx="38" c:formatCode="h:mm:ss">
-                  <c:v>0.00451388888888889</c:v>
-                </c:pt>
-                <c:pt idx="39" c:formatCode="h:mm:ss">
-                  <c:v>0.00462962962962963</c:v>
-                </c:pt>
-                <c:pt idx="40" c:formatCode="h:mm:ss">
-                  <c:v>0.00474537037037037</c:v>
-                </c:pt>
-                <c:pt idx="41" c:formatCode="h:mm:ss">
-                  <c:v>0.00486111111111111</c:v>
-                </c:pt>
-                <c:pt idx="42" c:formatCode="h:mm:ss">
-                  <c:v>0.00497685185185185</c:v>
-                </c:pt>
-                <c:pt idx="43" c:formatCode="h:mm:ss">
-                  <c:v>0.00509259259259259</c:v>
-                </c:pt>
-                <c:pt idx="44" c:formatCode="h:mm:ss">
-                  <c:v>0.00520833333333333</c:v>
-                </c:pt>
-                <c:pt idx="45" c:formatCode="h:mm:ss">
-                  <c:v>0.00532407407407407</c:v>
-                </c:pt>
-                <c:pt idx="46" c:formatCode="h:mm:ss">
-                  <c:v>0.00543981481481481</c:v>
-                </c:pt>
-                <c:pt idx="47" c:formatCode="h:mm:ss">
-                  <c:v>0.00555555555555556</c:v>
-                </c:pt>
-                <c:pt idx="48" c:formatCode="h:mm:ss">
-                  <c:v>0.0056712962962963</c:v>
-                </c:pt>
-                <c:pt idx="49" c:formatCode="h:mm:ss">
-                  <c:v>0.00578703703703704</c:v>
-                </c:pt>
-                <c:pt idx="50" c:formatCode="h:mm:ss">
-                  <c:v>0.00590277777777778</c:v>
-                </c:pt>
-                <c:pt idx="51" c:formatCode="h:mm:ss">
-                  <c:v>0.00601851851851852</c:v>
-                </c:pt>
-                <c:pt idx="52" c:formatCode="h:mm:ss">
-                  <c:v>0.00613425925925926</c:v>
-                </c:pt>
-                <c:pt idx="53" c:formatCode="h:mm:ss">
-                  <c:v>0.00625</c:v>
-                </c:pt>
-                <c:pt idx="54" c:formatCode="h:mm:ss">
-                  <c:v>0.00636574074074074</c:v>
-                </c:pt>
-                <c:pt idx="55" c:formatCode="h:mm:ss">
-                  <c:v>0.00648148148148148</c:v>
-                </c:pt>
-                <c:pt idx="56" c:formatCode="h:mm:ss">
-                  <c:v>0.00659722222222222</c:v>
-                </c:pt>
-                <c:pt idx="57" c:formatCode="h:mm:ss">
-                  <c:v>0.00671296296296296</c:v>
-                </c:pt>
-                <c:pt idx="58" c:formatCode="h:mm:ss">
-                  <c:v>0.0068287037037037</c:v>
-                </c:pt>
-                <c:pt idx="59" c:formatCode="h:mm:ss">
-                  <c:v>0.00694444444444444</c:v>
-                </c:pt>
-                <c:pt idx="60" c:formatCode="h:mm:ss">
-                  <c:v>0.00706018518518518</c:v>
-                </c:pt>
-                <c:pt idx="61" c:formatCode="h:mm:ss">
-                  <c:v>0.00717592592592593</c:v>
-                </c:pt>
-                <c:pt idx="62" c:formatCode="h:mm:ss">
-                  <c:v>0.00729166666666667</c:v>
-                </c:pt>
-                <c:pt idx="63" c:formatCode="h:mm:ss">
-                  <c:v>0.00740740740740741</c:v>
-                </c:pt>
-                <c:pt idx="64" c:formatCode="h:mm:ss">
-                  <c:v>0.00752314814814815</c:v>
-                </c:pt>
-                <c:pt idx="65" c:formatCode="h:mm:ss">
-                  <c:v>0.00763888888888889</c:v>
-                </c:pt>
-                <c:pt idx="66" c:formatCode="h:mm:ss">
-                  <c:v>0.00775462962962963</c:v>
-                </c:pt>
-                <c:pt idx="67" c:formatCode="h:mm:ss">
-                  <c:v>0.00787037037037037</c:v>
-                </c:pt>
-                <c:pt idx="68" c:formatCode="h:mm:ss">
-                  <c:v>0.00798611111111111</c:v>
-                </c:pt>
-                <c:pt idx="69" c:formatCode="h:mm:ss">
-                  <c:v>0.00810185185185185</c:v>
-                </c:pt>
-                <c:pt idx="70" c:formatCode="h:mm:ss">
-                  <c:v>0.00821759259259259</c:v>
-                </c:pt>
-                <c:pt idx="71" c:formatCode="h:mm:ss">
-                  <c:v>0.00833333333333333</c:v>
-                </c:pt>
-                <c:pt idx="72" c:formatCode="h:mm:ss">
-                  <c:v>0.00844907407407407</c:v>
-                </c:pt>
-                <c:pt idx="73" c:formatCode="h:mm:ss">
-                  <c:v>0.00856481481481482</c:v>
-                </c:pt>
-                <c:pt idx="74" c:formatCode="h:mm:ss">
-                  <c:v>0.00868055555555556</c:v>
-                </c:pt>
-                <c:pt idx="75" c:formatCode="h:mm:ss">
-                  <c:v>0.0087962962962963</c:v>
-                </c:pt>
-                <c:pt idx="76" c:formatCode="h:mm:ss">
-                  <c:v>0.00891203703703704</c:v>
-                </c:pt>
-                <c:pt idx="77" c:formatCode="h:mm:ss">
-                  <c:v>0.00902777777777778</c:v>
-                </c:pt>
-                <c:pt idx="78" c:formatCode="h:mm:ss">
-                  <c:v>0.00914351851851852</c:v>
-                </c:pt>
-                <c:pt idx="79" c:formatCode="h:mm:ss">
-                  <c:v>0.00925925925925926</c:v>
-                </c:pt>
-                <c:pt idx="80" c:formatCode="h:mm:ss">
-                  <c:v>0.009375</c:v>
-                </c:pt>
-                <c:pt idx="81" c:formatCode="h:mm:ss">
-                  <c:v>0.00949074074074074</c:v>
-                </c:pt>
-                <c:pt idx="82" c:formatCode="h:mm:ss">
-                  <c:v>0.00960648148148148</c:v>
-                </c:pt>
-                <c:pt idx="83" c:formatCode="h:mm:ss">
-                  <c:v>0.00972222222222222</c:v>
-                </c:pt>
-                <c:pt idx="84" c:formatCode="h:mm:ss">
-                  <c:v>0.00983796296296296</c:v>
-                </c:pt>
-                <c:pt idx="85" c:formatCode="h:mm:ss">
-                  <c:v>0.0099537037037037</c:v>
-                </c:pt>
-                <c:pt idx="86" c:formatCode="h:mm:ss">
-                  <c:v>0.0100694444444444</c:v>
-                </c:pt>
-                <c:pt idx="87" c:formatCode="h:mm:ss">
-                  <c:v>0.0101851851851852</c:v>
-                </c:pt>
-                <c:pt idx="88" c:formatCode="h:mm:ss">
-                  <c:v>0.0103009259259259</c:v>
-                </c:pt>
-                <c:pt idx="89" c:formatCode="h:mm:ss">
-                  <c:v>0.0104166666666667</c:v>
-                </c:pt>
-                <c:pt idx="90" c:formatCode="h:mm:ss">
-                  <c:v>0.0105324074074074</c:v>
-                </c:pt>
-                <c:pt idx="91" c:formatCode="h:mm:ss">
-                  <c:v>0.0106481481481481</c:v>
-                </c:pt>
-                <c:pt idx="92" c:formatCode="h:mm:ss">
-                  <c:v>0.0107638888888889</c:v>
-                </c:pt>
-                <c:pt idx="93" c:formatCode="h:mm:ss">
-                  <c:v>0.0108796296296296</c:v>
-                </c:pt>
-                <c:pt idx="94" c:formatCode="h:mm:ss">
-                  <c:v>0.0109953703703704</c:v>
-                </c:pt>
-                <c:pt idx="95" c:formatCode="h:mm:ss">
-                  <c:v>0.0111111111111111</c:v>
-                </c:pt>
-                <c:pt idx="96" c:formatCode="h:mm:ss">
-                  <c:v>0.0112268518518519</c:v>
-                </c:pt>
-                <c:pt idx="97" c:formatCode="h:mm:ss">
-                  <c:v>0.0113425925925926</c:v>
-                </c:pt>
-                <c:pt idx="98" c:formatCode="h:mm:ss">
-                  <c:v>0.0114583333333333</c:v>
+                <c:pt idx="0">
+                  <c:v>1.15740740740741E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.31481481481481E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4722222222222202E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6296296296296298E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.78703703703704E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.9444444444444404E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.1018518518518505E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.2592592592592596E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0416666666666699E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1574074074074099E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.27314814814815E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.38888888888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5046296296296301E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.6203703703703701E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7361111111111099E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.85185185185185E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.9675925925925898E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.0833333333333298E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.1990740740740699E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.3148148148148199E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.4305555555555599E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.5462962962963E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.66203703703704E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.7777777777777801E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.8935185185185201E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.0092592592592601E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.1250000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.2407407407407402E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.3564814814814798E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.4722222222222199E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.5879629629629599E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.7037037037036999E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.81944444444444E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.93518518518519E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.05092592592593E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.1666666666666701E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.2824074074074101E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.3981481481481502E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.5138888888888902E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.6296296296296302E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.7453703703703703E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.8611111111111103E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.9768518518518504E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.0925925925925904E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.2083333333333296E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.3240740740740696E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.4398148148148097E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.5555555555555601E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.6712962962963001E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.7870370370370402E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.9027777777777802E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.0185185185185203E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.1342592592592603E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.3657407407407404E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6.4814814814814804E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6.5972222222222196E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6.7129629629629596E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6.8287037037036997E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6.9444444444444397E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7.0601851851851798E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7.1759259259259302E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7.2916666666666703E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7.4074074074074103E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7.5231481481481503E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7.6388888888888904E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>7.7546296296296304E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>7.8703703703703696E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7.9861111111111105E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8.1018518518518497E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8.2175925925925906E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>8.3333333333333297E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>8.4490740740740707E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>8.5648148148148202E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>8.6805555555555594E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>8.7962962962963003E-3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>8.9120370370370395E-3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>9.0277777777777804E-3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>9.1435185185185196E-3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9.2592592592592605E-3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9.3749999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9.4907407407407406E-3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>9.6064814814814797E-3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>9.7222222222222206E-3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>9.8379629629629598E-3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>9.9537037037037007E-3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.00694444444444E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.01851851851852E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.0300925925925899E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.0416666666666701E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.05324074074074E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.0648148148148099E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.0763888888888899E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.08796296296296E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.09953703703704E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.1111111111111099E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.1226851851851899E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.13425925925926E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.14583333333333E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1324,34 +709,34 @@
                   <c:v>7.66</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8.28</c:v>
+                  <c:v>8.2799999999999994</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>8.81</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9.03</c:v>
+                  <c:v>9.0299999999999994</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>9.03</c:v>
+                  <c:v>9.0299999999999994</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8.71</c:v>
+                  <c:v>8.7100000000000009</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>9.06</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>9.03</c:v>
+                  <c:v>9.0299999999999994</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>9.32</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>9.47</c:v>
+                  <c:v>9.4700000000000006</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9.62</c:v>
+                  <c:v>9.6199999999999992</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>9.64</c:v>
@@ -1366,7 +751,7 @@
                   <c:v>9.93</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>9.46</c:v>
+                  <c:v>9.4600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>9.75</c:v>
@@ -1381,10 +766,10 @@
                   <c:v>9.58</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>10.03</c:v>
+                  <c:v>10.029999999999999</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>9.95</c:v>
+                  <c:v>9.9499999999999993</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>9.76</c:v>
@@ -1483,7 +868,7 @@
                   <c:v>15.78</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>16.42</c:v>
+                  <c:v>16.420000000000002</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>16.05</c:v>
@@ -1531,6 +916,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A76C-4D1F-9EBA-27167D0E7FC5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1540,7 +930,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="0"/>
         <c:smooth val="0"/>
         <c:axId val="500922388"/>
         <c:axId val="837251161"/>
@@ -1552,6 +941,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="h:mm:ss" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1585,6 +975,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="837251161"/>
@@ -1643,6 +1034,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="500922388"/>
@@ -1683,6 +1075,7 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2250,7 +1643,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
@@ -2264,14 +1657,20 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>122555</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="12534900" y="1402715"/>
-        <a:ext cx="4572000" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2565,21 +1964,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74:A77"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2587,7 +1986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2705,12 +2104,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:35">
       <c r="A6" s="1">
-        <v>0.000115740740740741</v>
+        <v>1.15740740740741E-4</v>
       </c>
       <c r="B6" s="1">
-        <v>0.0600115740740741</v>
+        <v>6.0011574074074099E-2</v>
       </c>
       <c r="C6">
         <v>90</v>
@@ -2758,12 +2157,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:35">
       <c r="A7" s="1">
-        <v>0.000231481481481481</v>
+        <v>2.31481481481481E-4</v>
       </c>
       <c r="B7" s="1">
-        <v>0.0601273148148148</v>
+        <v>6.01273148148148E-2</v>
       </c>
       <c r="C7">
         <v>82</v>
@@ -2811,12 +2210,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:35">
       <c r="A8" s="1">
-        <v>0.000347222222222222</v>
+        <v>3.4722222222222202E-4</v>
       </c>
       <c r="B8" s="1">
-        <v>0.0602430555555556</v>
+        <v>6.0243055555555598E-2</v>
       </c>
       <c r="C8">
         <v>81</v>
@@ -2864,12 +2263,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:35">
       <c r="A9" s="1">
-        <v>0.000462962962962963</v>
+        <v>4.6296296296296298E-4</v>
       </c>
       <c r="B9" s="1">
-        <v>0.0603587962962963</v>
+        <v>6.0358796296296299E-2</v>
       </c>
       <c r="C9">
         <v>78</v>
@@ -2917,12 +2316,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:35">
       <c r="A10" s="1">
-        <v>0.000578703703703704</v>
+        <v>5.78703703703704E-4</v>
       </c>
       <c r="B10" s="1">
-        <v>0.060474537037037</v>
+        <v>6.0474537037037E-2</v>
       </c>
       <c r="C10">
         <v>83</v>
@@ -2973,12 +2372,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:35">
       <c r="A11" s="1">
-        <v>0.000694444444444444</v>
+        <v>6.9444444444444404E-4</v>
       </c>
       <c r="B11" s="1">
-        <v>0.0605902777777778</v>
+        <v>6.0590277777777798E-2</v>
       </c>
       <c r="C11">
         <v>86</v>
@@ -3026,12 +2425,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:35">
       <c r="A12" s="1">
-        <v>0.000810185185185185</v>
+        <v>8.1018518518518505E-4</v>
       </c>
       <c r="B12" s="1">
-        <v>0.0607060185185185</v>
+        <v>6.0706018518518499E-2</v>
       </c>
       <c r="C12">
         <v>91</v>
@@ -3070,7 +2469,7 @@
         <v>1965</v>
       </c>
       <c r="O12">
-        <v>4.64</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="P12">
         <v>106</v>
@@ -3079,12 +2478,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:35">
       <c r="A13" s="1">
-        <v>0.000925925925925926</v>
+        <v>9.2592592592592596E-4</v>
       </c>
       <c r="B13" s="1">
-        <v>0.0608217592592593</v>
+        <v>6.0821759259259298E-2</v>
       </c>
       <c r="C13">
         <v>82</v>
@@ -3123,7 +2522,7 @@
         <v>2245</v>
       </c>
       <c r="O13">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="P13">
         <v>106</v>
@@ -3132,12 +2531,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:35">
       <c r="A14" s="1">
-        <v>0.00104166666666667</v>
+        <v>1.0416666666666699E-3</v>
       </c>
       <c r="B14" s="1">
-        <v>0.0609375</v>
+        <v>6.0937499999999999E-2</v>
       </c>
       <c r="C14">
         <v>77</v>
@@ -3185,12 +2584,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:35">
       <c r="A15" s="1">
-        <v>0.00115740740740741</v>
+        <v>1.1574074074074099E-3</v>
       </c>
       <c r="B15" s="1">
-        <v>0.0610532407407407</v>
+        <v>6.10532407407407E-2</v>
       </c>
       <c r="C15">
         <v>76</v>
@@ -3238,12 +2637,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:35">
       <c r="A16" s="1">
-        <v>0.00127314814814815</v>
+        <v>1.27314814814815E-3</v>
       </c>
       <c r="B16" s="1">
-        <v>0.0611689814814815</v>
+        <v>6.1168981481481498E-2</v>
       </c>
       <c r="C16">
         <v>83</v>
@@ -3282,7 +2681,7 @@
         <v>2177</v>
       </c>
       <c r="O16">
-        <v>4.19</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="P16">
         <v>111</v>
@@ -3291,12 +2690,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:21">
       <c r="A17" s="1">
-        <v>0.00138888888888889</v>
+        <v>1.38888888888889E-3</v>
       </c>
       <c r="B17" s="1">
-        <v>0.0612847222222222</v>
+        <v>6.1284722222222199E-2</v>
       </c>
       <c r="C17">
         <v>84</v>
@@ -3335,7 +2734,7 @@
         <v>2051</v>
       </c>
       <c r="O17">
-        <v>4.44</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="P17">
         <v>107</v>
@@ -3344,12 +2743,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:21">
       <c r="A18" s="1">
-        <v>0.00150462962962963</v>
+        <v>1.5046296296296301E-3</v>
       </c>
       <c r="B18" s="1">
-        <v>0.061400462962963</v>
+        <v>6.1400462962962997E-2</v>
       </c>
       <c r="C18">
         <v>81</v>
@@ -3397,12 +2796,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:21">
       <c r="A19" s="1">
-        <v>0.00162037037037037</v>
+        <v>1.6203703703703701E-3</v>
       </c>
       <c r="B19" s="1">
-        <v>0.0615162037037037</v>
+        <v>6.1516203703703698E-2</v>
       </c>
       <c r="C19">
         <v>77</v>
@@ -3450,12 +2849,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:21">
       <c r="A20" s="1">
-        <v>0.00173611111111111</v>
+        <v>1.7361111111111099E-3</v>
       </c>
       <c r="B20" s="1">
-        <v>0.0616319444444444</v>
+        <v>6.1631944444444399E-2</v>
       </c>
       <c r="C20">
         <v>76</v>
@@ -3503,12 +2902,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:21">
       <c r="A21" s="1">
-        <v>0.00185185185185185</v>
+        <v>1.85185185185185E-3</v>
       </c>
       <c r="B21" s="1">
-        <v>0.0617476851851852</v>
+        <v>6.1747685185185197E-2</v>
       </c>
       <c r="C21">
         <v>88</v>
@@ -3556,12 +2955,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:21">
       <c r="A22" s="1">
-        <v>0.00196759259259259</v>
+        <v>1.9675925925925898E-3</v>
       </c>
       <c r="B22" s="1">
-        <v>0.0618634259259259</v>
+        <v>6.1863425925925898E-2</v>
       </c>
       <c r="C22">
         <v>90</v>
@@ -3609,12 +3008,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:21">
       <c r="A23" s="1">
-        <v>0.00208333333333333</v>
+        <v>2.0833333333333298E-3</v>
       </c>
       <c r="B23" s="1">
-        <v>0.0619791666666667</v>
+        <v>6.1979166666666703E-2</v>
       </c>
       <c r="C23">
         <v>77</v>
@@ -3662,12 +3061,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:21">
       <c r="A24" s="1">
-        <v>0.00219907407407407</v>
+        <v>2.1990740740740699E-3</v>
       </c>
       <c r="B24" s="1">
-        <v>0.0620949074074074</v>
+        <v>6.2094907407407397E-2</v>
       </c>
       <c r="C24">
         <v>78</v>
@@ -3715,12 +3114,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:21">
       <c r="A25" s="1">
-        <v>0.00231481481481482</v>
+        <v>2.3148148148148199E-3</v>
       </c>
       <c r="B25" s="1">
-        <v>0.0622106481481481</v>
+        <v>6.2210648148148098E-2</v>
       </c>
       <c r="C25">
         <v>76</v>
@@ -3768,12 +3167,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:21">
       <c r="A26" s="1">
-        <v>0.00243055555555556</v>
+        <v>2.4305555555555599E-3</v>
       </c>
       <c r="B26" s="1">
-        <v>0.0623263888888889</v>
+        <v>6.2326388888888903E-2</v>
       </c>
       <c r="C26">
         <v>76</v>
@@ -3821,12 +3220,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:21">
       <c r="A27" s="1">
-        <v>0.0025462962962963</v>
+        <v>2.5462962962963E-3</v>
       </c>
       <c r="B27" s="1">
-        <v>0.0624421296296296</v>
+        <v>6.2442129629629597E-2</v>
       </c>
       <c r="C27">
         <v>77</v>
@@ -3873,13 +3272,16 @@
       <c r="Q27">
         <v>43</v>
       </c>
-    </row>
-    <row r="28" spans="1:17">
+      <c r="U27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
       <c r="A28" s="1">
-        <v>0.00266203703703704</v>
+        <v>2.66203703703704E-3</v>
       </c>
       <c r="B28" s="1">
-        <v>0.0625578703703704</v>
+        <v>6.2557870370370403E-2</v>
       </c>
       <c r="C28">
         <v>83</v>
@@ -3926,13 +3328,17 @@
       <c r="Q28">
         <v>45</v>
       </c>
-    </row>
-    <row r="29" spans="1:17">
+      <c r="U28">
+        <f>AVERAGE(E14:E25)</f>
+        <v>6.041666666666667</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
       <c r="A29" s="1">
-        <v>0.00277777777777778</v>
+        <v>2.7777777777777801E-3</v>
       </c>
       <c r="B29" s="1">
-        <v>0.0626736111111111</v>
+        <v>6.2673611111111097E-2</v>
       </c>
       <c r="C29">
         <v>85</v>
@@ -3980,12 +3386,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:21">
       <c r="A30" s="1">
-        <v>0.00289351851851852</v>
+        <v>2.8935185185185201E-3</v>
       </c>
       <c r="B30" s="1">
-        <v>0.0627893518518518</v>
+        <v>6.2789351851851805E-2</v>
       </c>
       <c r="C30">
         <v>86</v>
@@ -4033,12 +3439,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:21">
       <c r="A31" s="1">
-        <v>0.00300925925925926</v>
+        <v>3.0092592592592601E-3</v>
       </c>
       <c r="B31" s="1">
-        <v>0.0629050925925926</v>
+        <v>6.2905092592592596E-2</v>
       </c>
       <c r="C31">
         <v>86</v>
@@ -4086,12 +3492,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:21">
       <c r="A32" s="1">
-        <v>0.003125</v>
+        <v>3.1250000000000002E-3</v>
       </c>
       <c r="B32" s="1">
-        <v>0.0630208333333333</v>
+        <v>6.3020833333333304E-2</v>
       </c>
       <c r="C32">
         <v>88</v>
@@ -4139,12 +3545,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:19">
       <c r="A33" s="1">
-        <v>0.00324074074074074</v>
+        <v>3.2407407407407402E-3</v>
       </c>
       <c r="B33" s="1">
-        <v>0.0631365740740741</v>
+        <v>6.3136574074074095E-2</v>
       </c>
       <c r="C33">
         <v>83</v>
@@ -4192,12 +3598,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:19">
       <c r="A34" s="1">
-        <v>0.00335648148148148</v>
+        <v>3.3564814814814798E-3</v>
       </c>
       <c r="B34" s="1">
-        <v>0.0632523148148148</v>
+        <v>6.3252314814814803E-2</v>
       </c>
       <c r="C34">
         <v>89</v>
@@ -4247,10 +3653,10 @@
     </row>
     <row r="35" spans="1:19">
       <c r="A35" s="1">
-        <v>0.00347222222222222</v>
+        <v>3.4722222222222199E-3</v>
       </c>
       <c r="B35" s="1">
-        <v>0.0633680555555556</v>
+        <v>6.3368055555555594E-2</v>
       </c>
       <c r="C35">
         <v>97</v>
@@ -4301,12 +3707,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:19">
       <c r="A36" s="1">
-        <v>0.00358796296296296</v>
+        <v>3.5879629629629599E-3</v>
       </c>
       <c r="B36" s="1">
-        <v>0.0634837962962963</v>
+        <v>6.3483796296296302E-2</v>
       </c>
       <c r="C36">
         <v>101</v>
@@ -4318,7 +3724,7 @@
         <v>7.66</v>
       </c>
       <c r="F36">
-        <v>4.02</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="G36">
         <v>57</v>
@@ -4345,7 +3751,7 @@
         <v>1799</v>
       </c>
       <c r="O36">
-        <v>5.06</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="P36">
         <v>112</v>
@@ -4354,12 +3760,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:19">
       <c r="A37" s="1">
-        <v>0.0037037037037037</v>
+        <v>3.7037037037036999E-3</v>
       </c>
       <c r="B37" s="1">
-        <v>0.063599537037037</v>
+        <v>6.3599537037036996E-2</v>
       </c>
       <c r="C37">
         <v>103</v>
@@ -4368,10 +3774,10 @@
         <v>79</v>
       </c>
       <c r="E37">
-        <v>8.28</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="F37">
-        <v>4.35</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="G37">
         <v>57</v>
@@ -4407,12 +3813,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:19">
       <c r="A38" s="1">
-        <v>0.00381944444444444</v>
+        <v>3.81944444444444E-3</v>
       </c>
       <c r="B38" s="1">
-        <v>0.0637152777777778</v>
+        <v>6.3715277777777801E-2</v>
       </c>
       <c r="C38">
         <v>105</v>
@@ -4460,12 +3866,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:19">
       <c r="A39" s="1">
-        <v>0.00393518518518519</v>
+        <v>3.93518518518519E-3</v>
       </c>
       <c r="B39" s="1">
-        <v>0.0638310185185185</v>
+        <v>6.3831018518518495E-2</v>
       </c>
       <c r="C39">
         <v>105</v>
@@ -4474,7 +3880,7 @@
         <v>85</v>
       </c>
       <c r="E39">
-        <v>9.03</v>
+        <v>9.0299999999999994</v>
       </c>
       <c r="F39">
         <v>4.75</v>
@@ -4513,12 +3919,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:19">
       <c r="A40" s="1">
-        <v>0.00405092592592593</v>
+        <v>4.05092592592593E-3</v>
       </c>
       <c r="B40" s="1">
-        <v>0.0639467592592593</v>
+        <v>6.39467592592593E-2</v>
       </c>
       <c r="C40">
         <v>107</v>
@@ -4527,7 +3933,7 @@
         <v>83</v>
       </c>
       <c r="E40">
-        <v>9.03</v>
+        <v>9.0299999999999994</v>
       </c>
       <c r="F40">
         <v>4.74</v>
@@ -4566,12 +3972,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:19">
       <c r="A41" s="1">
-        <v>0.00416666666666667</v>
+        <v>4.1666666666666701E-3</v>
       </c>
       <c r="B41" s="1">
-        <v>0.0640625</v>
+        <v>6.4062499999999994E-2</v>
       </c>
       <c r="C41">
         <v>106</v>
@@ -4580,7 +3986,7 @@
         <v>81</v>
       </c>
       <c r="E41">
-        <v>8.71</v>
+        <v>8.7100000000000009</v>
       </c>
       <c r="F41">
         <v>4.58</v>
@@ -4619,12 +4025,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:19">
       <c r="A42" s="1">
-        <v>0.00428240740740741</v>
+        <v>4.2824074074074101E-3</v>
       </c>
       <c r="B42" s="1">
-        <v>0.0641782407407407</v>
+        <v>6.4178240740740702E-2</v>
       </c>
       <c r="C42">
         <v>104</v>
@@ -4672,12 +4078,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:19">
       <c r="A43" s="1">
-        <v>0.00439814814814815</v>
+        <v>4.3981481481481502E-3</v>
       </c>
       <c r="B43" s="1">
-        <v>0.0642939814814815</v>
+        <v>6.4293981481481494E-2</v>
       </c>
       <c r="C43">
         <v>105</v>
@@ -4686,7 +4092,7 @@
         <v>85</v>
       </c>
       <c r="E43">
-        <v>9.03</v>
+        <v>9.0299999999999994</v>
       </c>
       <c r="F43">
         <v>4.75</v>
@@ -4725,12 +4131,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:19">
       <c r="A44" s="1">
-        <v>0.00451388888888889</v>
+        <v>4.5138888888888902E-3</v>
       </c>
       <c r="B44" s="1">
-        <v>0.0644097222222222</v>
+        <v>6.4409722222222202E-2</v>
       </c>
       <c r="C44">
         <v>108</v>
@@ -4742,7 +4148,7 @@
         <v>9.32</v>
       </c>
       <c r="F44">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="G44">
         <v>58</v>
@@ -4778,12 +4184,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:19">
       <c r="A45" s="1">
-        <v>0.00462962962962963</v>
+        <v>4.6296296296296302E-3</v>
       </c>
       <c r="B45" s="1">
-        <v>0.064525462962963</v>
+        <v>6.4525462962963007E-2</v>
       </c>
       <c r="C45">
         <v>108</v>
@@ -4792,7 +4198,7 @@
         <v>87</v>
       </c>
       <c r="E45">
-        <v>9.47</v>
+        <v>9.4700000000000006</v>
       </c>
       <c r="F45">
         <v>4.97</v>
@@ -4831,12 +4237,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:19">
       <c r="A46" s="1">
-        <v>0.00474537037037037</v>
+        <v>4.7453703703703703E-3</v>
       </c>
       <c r="B46" s="1">
-        <v>0.0646412037037037</v>
+        <v>6.4641203703703701E-2</v>
       </c>
       <c r="C46">
         <v>109</v>
@@ -4845,10 +4251,10 @@
         <v>88</v>
       </c>
       <c r="E46">
-        <v>9.62</v>
+        <v>9.6199999999999992</v>
       </c>
       <c r="F46">
-        <v>5.06</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="G46">
         <v>58</v>
@@ -4884,12 +4290,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:19">
       <c r="A47" s="1">
-        <v>0.00486111111111111</v>
+        <v>4.8611111111111103E-3</v>
       </c>
       <c r="B47" s="1">
-        <v>0.0647569444444445</v>
+        <v>6.4756944444444506E-2</v>
       </c>
       <c r="C47">
         <v>109</v>
@@ -4901,7 +4307,7 @@
         <v>9.64</v>
       </c>
       <c r="F47">
-        <v>5.06</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="G47">
         <v>58</v>
@@ -4937,12 +4343,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:19">
       <c r="A48" s="1">
-        <v>0.00497685185185185</v>
+        <v>4.9768518518518504E-3</v>
       </c>
       <c r="B48" s="1">
-        <v>0.0648726851851852</v>
+        <v>6.48726851851852E-2</v>
       </c>
       <c r="C48">
         <v>108</v>
@@ -4992,10 +4398,10 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="1">
-        <v>0.00509259259259259</v>
+        <v>5.0925925925925904E-3</v>
       </c>
       <c r="B49" s="1">
-        <v>0.0649884259259259</v>
+        <v>6.4988425925925894E-2</v>
       </c>
       <c r="C49">
         <v>110</v>
@@ -5045,10 +4451,10 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="1">
-        <v>0.00520833333333333</v>
+        <v>5.2083333333333296E-3</v>
       </c>
       <c r="B50" s="1">
-        <v>0.0651041666666667</v>
+        <v>6.5104166666666699E-2</v>
       </c>
       <c r="C50">
         <v>110</v>
@@ -5098,10 +4504,10 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="1">
-        <v>0.00532407407407407</v>
+        <v>5.3240740740740696E-3</v>
       </c>
       <c r="B51" s="1">
-        <v>0.0652199074074074</v>
+        <v>6.5219907407407393E-2</v>
       </c>
       <c r="C51">
         <v>110</v>
@@ -5110,7 +4516,7 @@
         <v>85</v>
       </c>
       <c r="E51">
-        <v>9.46</v>
+        <v>9.4600000000000009</v>
       </c>
       <c r="F51">
         <v>4.97</v>
@@ -5151,10 +4557,10 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="1">
-        <v>0.00543981481481481</v>
+        <v>5.4398148148148097E-3</v>
       </c>
       <c r="B52" s="1">
-        <v>0.0653356481481481</v>
+        <v>6.5335648148148101E-2</v>
       </c>
       <c r="C52">
         <v>114</v>
@@ -5204,10 +4610,10 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="1">
-        <v>0.00555555555555556</v>
+        <v>5.5555555555555601E-3</v>
       </c>
       <c r="B53" s="1">
-        <v>0.0654513888888889</v>
+        <v>6.5451388888888906E-2</v>
       </c>
       <c r="C53">
         <v>116</v>
@@ -5257,10 +4663,10 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="1">
-        <v>0.0056712962962963</v>
+        <v>5.6712962962963001E-3</v>
       </c>
       <c r="B54" s="1">
-        <v>0.0655671296296296</v>
+        <v>6.55671296296296E-2</v>
       </c>
       <c r="C54">
         <v>114</v>
@@ -5310,10 +4716,10 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="1">
-        <v>0.00578703703703704</v>
+        <v>5.7870370370370402E-3</v>
       </c>
       <c r="B55" s="1">
-        <v>0.0656828703703704</v>
+        <v>6.5682870370370405E-2</v>
       </c>
       <c r="C55">
         <v>110</v>
@@ -5363,10 +4769,10 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="1">
-        <v>0.00590277777777778</v>
+        <v>5.9027777777777802E-3</v>
       </c>
       <c r="B56" s="1">
-        <v>0.0657986111111111</v>
+        <v>6.5798611111111099E-2</v>
       </c>
       <c r="C56">
         <v>112</v>
@@ -5375,7 +4781,7 @@
         <v>88</v>
       </c>
       <c r="E56">
-        <v>10.03</v>
+        <v>10.029999999999999</v>
       </c>
       <c r="F56">
         <v>5.27</v>
@@ -5416,10 +4822,10 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="1">
-        <v>0.00601851851851852</v>
+        <v>6.0185185185185203E-3</v>
       </c>
       <c r="B57" s="1">
-        <v>0.0659143518518518</v>
+        <v>6.5914351851851793E-2</v>
       </c>
       <c r="C57">
         <v>115</v>
@@ -5428,7 +4834,7 @@
         <v>85</v>
       </c>
       <c r="E57">
-        <v>9.95</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="F57">
         <v>5.23</v>
@@ -5469,10 +4875,10 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="1">
-        <v>0.00613425925925926</v>
+        <v>6.1342592592592603E-3</v>
       </c>
       <c r="B58" s="1">
-        <v>0.0660300925925926</v>
+        <v>6.6030092592592599E-2</v>
       </c>
       <c r="C58">
         <v>112</v>
@@ -5522,10 +4928,10 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="1">
-        <v>0.00625</v>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="B59" s="1">
-        <v>0.0661458333333333</v>
+        <v>6.6145833333333307E-2</v>
       </c>
       <c r="C59">
         <v>115</v>
@@ -5575,10 +4981,10 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="1">
-        <v>0.00636574074074074</v>
+        <v>6.3657407407407404E-3</v>
       </c>
       <c r="B60" s="1">
-        <v>0.0662615740740741</v>
+        <v>6.6261574074074098E-2</v>
       </c>
       <c r="C60">
         <v>116</v>
@@ -5628,10 +5034,10 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="1">
-        <v>0.00648148148148148</v>
+        <v>6.4814814814814804E-3</v>
       </c>
       <c r="B61" s="1">
-        <v>0.0663773148148148</v>
+        <v>6.6377314814814806E-2</v>
       </c>
       <c r="C61">
         <v>115</v>
@@ -5681,10 +5087,10 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="1">
-        <v>0.00659722222222222</v>
+        <v>6.5972222222222196E-3</v>
       </c>
       <c r="B62" s="1">
-        <v>0.0664930555555556</v>
+        <v>6.6493055555555597E-2</v>
       </c>
       <c r="C62">
         <v>114</v>
@@ -5734,10 +5140,10 @@
     </row>
     <row r="63" spans="1:17">
       <c r="A63" s="1">
-        <v>0.00671296296296296</v>
+        <v>6.7129629629629596E-3</v>
       </c>
       <c r="B63" s="1">
-        <v>0.0666087962962963</v>
+        <v>6.6608796296296305E-2</v>
       </c>
       <c r="C63">
         <v>117</v>
@@ -5787,10 +5193,10 @@
     </row>
     <row r="64" spans="1:17">
       <c r="A64" s="1">
-        <v>0.0068287037037037</v>
+        <v>6.8287037037036997E-3</v>
       </c>
       <c r="B64" s="1">
-        <v>0.066724537037037</v>
+        <v>6.6724537037036999E-2</v>
       </c>
       <c r="C64">
         <v>122</v>
@@ -5838,12 +5244,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:35">
       <c r="A65" s="1">
-        <v>0.00694444444444444</v>
+        <v>6.9444444444444397E-3</v>
       </c>
       <c r="B65" s="1">
-        <v>0.0668402777777778</v>
+        <v>6.6840277777777804E-2</v>
       </c>
       <c r="C65">
         <v>120</v>
@@ -5891,12 +5297,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="1:19">
+    <row r="66" spans="1:35">
       <c r="A66" s="1">
-        <v>0.00706018518518518</v>
+        <v>7.0601851851851798E-3</v>
       </c>
       <c r="B66" s="1">
-        <v>0.0669560185185185</v>
+        <v>6.6956018518518498E-2</v>
       </c>
       <c r="C66">
         <v>123</v>
@@ -5947,12 +5353,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:35">
       <c r="A67" s="1">
-        <v>0.00717592592592593</v>
+        <v>7.1759259259259302E-3</v>
       </c>
       <c r="B67" s="1">
-        <v>0.0670717592592593</v>
+        <v>6.7071759259259303E-2</v>
       </c>
       <c r="C67">
         <v>126</v>
@@ -6000,12 +5406,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:35">
       <c r="A68" s="1">
-        <v>0.00729166666666667</v>
+        <v>7.2916666666666703E-3</v>
       </c>
       <c r="B68" s="1">
-        <v>0.0671875</v>
+        <v>6.7187499999999997E-2</v>
       </c>
       <c r="C68">
         <v>132</v>
@@ -6053,12 +5459,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:35">
       <c r="A69" s="1">
-        <v>0.00740740740740741</v>
+        <v>7.4074074074074103E-3</v>
       </c>
       <c r="B69" s="1">
-        <v>0.0673032407407407</v>
+        <v>6.7303240740740705E-2</v>
       </c>
       <c r="C69">
         <v>136</v>
@@ -6106,12 +5512,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:35">
       <c r="A70" s="1">
-        <v>0.00752314814814815</v>
+        <v>7.5231481481481503E-3</v>
       </c>
       <c r="B70" s="1">
-        <v>0.0674189814814815</v>
+        <v>6.7418981481481496E-2</v>
       </c>
       <c r="C70">
         <v>138</v>
@@ -6159,12 +5565,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:35">
       <c r="A71" s="1">
-        <v>0.00763888888888889</v>
+        <v>7.6388888888888904E-3</v>
       </c>
       <c r="B71" s="1">
-        <v>0.0675347222222222</v>
+        <v>6.7534722222222204E-2</v>
       </c>
       <c r="C71">
         <v>141</v>
@@ -6212,12 +5618,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:35">
       <c r="A72" s="1">
-        <v>0.00775462962962963</v>
+        <v>7.7546296296296304E-3</v>
       </c>
       <c r="B72" s="1">
-        <v>0.067650462962963</v>
+        <v>6.7650462962962996E-2</v>
       </c>
       <c r="C72">
         <v>143</v>
@@ -6256,7 +5662,7 @@
         <v>1014</v>
       </c>
       <c r="O72">
-        <v>8.96</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="P72">
         <v>85</v>
@@ -6265,12 +5671,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="1:19">
+    <row r="73" spans="1:35">
       <c r="A73" s="1">
-        <v>0.00787037037037037</v>
+        <v>7.8703703703703696E-3</v>
       </c>
       <c r="B73" s="1">
-        <v>0.0677662037037037</v>
+        <v>6.7766203703703703E-2</v>
       </c>
       <c r="C73">
         <v>147</v>
@@ -6321,12 +5727,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:35">
       <c r="A74" s="1">
-        <v>0.00798611111111111</v>
+        <v>7.9861111111111105E-3</v>
       </c>
       <c r="B74" s="1">
-        <v>0.0678819444444444</v>
+        <v>6.7881944444444398E-2</v>
       </c>
       <c r="C74">
         <v>148</v>
@@ -6365,7 +5771,7 @@
         <v>936</v>
       </c>
       <c r="O74">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="P74">
         <v>89</v>
@@ -6374,12 +5780,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:35">
       <c r="A75" s="1">
-        <v>0.00810185185185185</v>
+        <v>8.1018518518518497E-3</v>
       </c>
       <c r="B75" s="1">
-        <v>0.0679976851851852</v>
+        <v>6.7997685185185203E-2</v>
       </c>
       <c r="C75">
         <v>151</v>
@@ -6427,12 +5833,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:35">
       <c r="A76" s="1">
-        <v>0.00821759259259259</v>
+        <v>8.2175925925925906E-3</v>
       </c>
       <c r="B76" s="1">
-        <v>0.0681134259259259</v>
+        <v>6.8113425925925897E-2</v>
       </c>
       <c r="C76">
         <v>152</v>
@@ -6482,10 +5888,10 @@
     </row>
     <row r="77" spans="1:35">
       <c r="A77" s="1">
-        <v>0.00833333333333333</v>
+        <v>8.3333333333333297E-3</v>
       </c>
       <c r="B77" s="1">
-        <v>0.0682291666666667</v>
+        <v>6.8229166666666702E-2</v>
       </c>
       <c r="C77">
         <v>153</v>
@@ -6497,7 +5903,7 @@
         <v>15.48</v>
       </c>
       <c r="F77">
-        <v>8.13</v>
+        <v>8.1300000000000008</v>
       </c>
       <c r="G77">
         <v>56</v>
@@ -6542,11 +5948,11 @@
       </c>
       <c r="W77" s="2">
         <f t="shared" si="0"/>
-        <v>15.065</v>
+        <v>15.065000000000001</v>
       </c>
       <c r="X77" s="2">
         <f t="shared" si="0"/>
-        <v>7.9125</v>
+        <v>7.9124999999999996</v>
       </c>
       <c r="Y77" s="2">
         <f t="shared" si="0"/>
@@ -6582,7 +5988,7 @@
       </c>
       <c r="AG77" s="2">
         <f t="shared" si="0"/>
-        <v>9.955</v>
+        <v>9.9550000000000001</v>
       </c>
       <c r="AH77" s="2">
         <f t="shared" si="0"/>
@@ -6595,10 +6001,10 @@
     </row>
     <row r="78" spans="1:35">
       <c r="A78" s="1">
-        <v>0.00844907407407407</v>
+        <v>8.4490740740740707E-3</v>
       </c>
       <c r="B78" s="1">
-        <v>0.0683449074074074</v>
+        <v>6.8344907407407396E-2</v>
       </c>
       <c r="C78">
         <v>155</v>
@@ -6610,7 +6016,7 @@
         <v>15.46</v>
       </c>
       <c r="F78">
-        <v>8.12</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="G78">
         <v>55</v>
@@ -6637,7 +6043,7 @@
         <v>889</v>
       </c>
       <c r="O78">
-        <v>10.21</v>
+        <v>10.210000000000001</v>
       </c>
       <c r="P78">
         <v>92</v>
@@ -6663,10 +6069,10 @@
     </row>
     <row r="79" spans="1:35">
       <c r="A79" s="1">
-        <v>0.00856481481481482</v>
+        <v>8.5648148148148202E-3</v>
       </c>
       <c r="B79" s="1">
-        <v>0.0684606481481482</v>
+        <v>6.8460648148148201E-2</v>
       </c>
       <c r="C79">
         <v>155</v>
@@ -6731,10 +6137,10 @@
     </row>
     <row r="80" spans="1:35">
       <c r="A80" s="1">
-        <v>0.00868055555555556</v>
+        <v>8.6805555555555594E-3</v>
       </c>
       <c r="B80" s="1">
-        <v>0.0685763888888889</v>
+        <v>6.8576388888888895E-2</v>
       </c>
       <c r="C80">
         <v>155</v>
@@ -6773,7 +6179,7 @@
         <v>911</v>
       </c>
       <c r="O80">
-        <v>9.97</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="P80">
         <v>96</v>
@@ -6790,12 +6196,12 @@
         <v>98.25</v>
       </c>
       <c r="W80" s="2">
-        <f t="shared" si="1"/>
-        <v>15.295</v>
+        <f>AVERAGE(E77:E80)</f>
+        <v>15.295000000000002</v>
       </c>
       <c r="X80" s="2">
         <f t="shared" si="1"/>
-        <v>8.035</v>
+        <v>8.0350000000000001</v>
       </c>
       <c r="Y80" s="2">
         <f t="shared" si="1"/>
@@ -6844,10 +6250,10 @@
     </row>
     <row r="81" spans="1:35">
       <c r="A81" s="1">
-        <v>0.0087962962962963</v>
+        <v>8.7962962962963003E-3</v>
       </c>
       <c r="B81" s="1">
-        <v>0.0686921296296296</v>
+        <v>6.8692129629629603E-2</v>
       </c>
       <c r="C81">
         <v>156</v>
@@ -6886,7 +6292,7 @@
         <v>919</v>
       </c>
       <c r="O81">
-        <v>9.88</v>
+        <v>9.8800000000000008</v>
       </c>
       <c r="P81">
         <v>96</v>
@@ -6912,10 +6318,10 @@
     </row>
     <row r="82" spans="1:35">
       <c r="A82" s="1">
-        <v>0.00891203703703704</v>
+        <v>8.9120370370370395E-3</v>
       </c>
       <c r="B82" s="1">
-        <v>0.0688078703703704</v>
+        <v>6.8807870370370394E-2</v>
       </c>
       <c r="C82">
         <v>160</v>
@@ -6980,10 +6386,10 @@
     </row>
     <row r="83" spans="1:35">
       <c r="A83" s="1">
-        <v>0.00902777777777778</v>
+        <v>9.0277777777777804E-3</v>
       </c>
       <c r="B83" s="1">
-        <v>0.0689236111111111</v>
+        <v>6.8923611111111102E-2</v>
       </c>
       <c r="C83">
         <v>162</v>
@@ -7048,10 +6454,10 @@
     </row>
     <row r="84" spans="1:35">
       <c r="A84" s="1">
-        <v>0.00914351851851852</v>
+        <v>9.1435185185185196E-3</v>
       </c>
       <c r="B84" s="1">
-        <v>0.0690393518518519</v>
+        <v>6.9039351851851893E-2</v>
       </c>
       <c r="C84">
         <v>165</v>
@@ -7116,10 +6522,10 @@
     </row>
     <row r="85" spans="1:35">
       <c r="A85" s="1">
-        <v>0.00925925925925926</v>
+        <v>9.2592592592592605E-3</v>
       </c>
       <c r="B85" s="1">
-        <v>0.0691550925925926</v>
+        <v>6.9155092592592601E-2</v>
       </c>
       <c r="C85">
         <v>165</v>
@@ -7184,10 +6590,10 @@
     </row>
     <row r="86" spans="1:35">
       <c r="A86" s="1">
-        <v>0.009375</v>
+        <v>9.3749999999999997E-3</v>
       </c>
       <c r="B86" s="1">
-        <v>0.0692708333333333</v>
+        <v>6.9270833333333295E-2</v>
       </c>
       <c r="C86">
         <v>164</v>
@@ -7199,7 +6605,7 @@
         <v>15.62</v>
       </c>
       <c r="F86">
-        <v>8.21</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="G86">
         <v>58</v>
@@ -7252,10 +6658,10 @@
     </row>
     <row r="87" spans="1:35">
       <c r="A87" s="1">
-        <v>0.00949074074074074</v>
+        <v>9.4907407407407406E-3</v>
       </c>
       <c r="B87" s="1">
-        <v>0.0693865740740741</v>
+        <v>6.93865740740741E-2</v>
       </c>
       <c r="C87">
         <v>165</v>
@@ -7323,10 +6729,10 @@
     </row>
     <row r="88" spans="1:35">
       <c r="A88" s="1">
-        <v>0.00960648148148148</v>
+        <v>9.6064814814814797E-3</v>
       </c>
       <c r="B88" s="1">
-        <v>0.0695023148148148</v>
+        <v>6.9502314814814795E-2</v>
       </c>
       <c r="C88">
         <v>166</v>
@@ -7391,10 +6797,10 @@
     </row>
     <row r="89" spans="1:35">
       <c r="A89" s="1">
-        <v>0.00972222222222222</v>
+        <v>9.7222222222222206E-3</v>
       </c>
       <c r="B89" s="1">
-        <v>0.0696180555555556</v>
+        <v>6.96180555555556E-2</v>
       </c>
       <c r="C89">
         <v>168</v>
@@ -7406,7 +6812,7 @@
         <v>15.78</v>
       </c>
       <c r="F89">
-        <v>8.29</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="G89">
         <v>57</v>
@@ -7459,10 +6865,10 @@
     </row>
     <row r="90" spans="1:35">
       <c r="A90" s="1">
-        <v>0.00983796296296296</v>
+        <v>9.8379629629629598E-3</v>
       </c>
       <c r="B90" s="1">
-        <v>0.0697337962962963</v>
+        <v>6.9733796296296294E-2</v>
       </c>
       <c r="C90">
         <v>169</v>
@@ -7471,10 +6877,10 @@
         <v>97</v>
       </c>
       <c r="E90">
-        <v>16.42</v>
+        <v>16.420000000000002</v>
       </c>
       <c r="F90">
-        <v>8.63</v>
+        <v>8.6300000000000008</v>
       </c>
       <c r="G90">
         <v>58</v>
@@ -7527,10 +6933,10 @@
     </row>
     <row r="91" spans="1:35">
       <c r="A91" s="1">
-        <v>0.0099537037037037</v>
+        <v>9.9537037037037007E-3</v>
       </c>
       <c r="B91" s="1">
-        <v>0.069849537037037</v>
+        <v>6.9849537037037002E-2</v>
       </c>
       <c r="C91">
         <v>169</v>
@@ -7595,10 +7001,10 @@
     </row>
     <row r="92" spans="1:35">
       <c r="A92" s="1">
-        <v>0.0100694444444444</v>
+        <v>1.00694444444444E-2</v>
       </c>
       <c r="B92" s="1">
-        <v>0.0699652777777778</v>
+        <v>6.9965277777777807E-2</v>
       </c>
       <c r="C92">
         <v>169</v>
@@ -7655,11 +7061,11 @@
       </c>
       <c r="W92" s="2">
         <f t="shared" si="2"/>
-        <v>15.918</v>
+        <v>15.917999999999997</v>
       </c>
       <c r="X92" s="2">
         <f t="shared" si="2"/>
-        <v>8.364</v>
+        <v>8.3640000000000008</v>
       </c>
       <c r="Y92" s="2">
         <f t="shared" si="2"/>
@@ -7683,7 +7089,7 @@
       </c>
       <c r="AD92" s="2">
         <f t="shared" si="2"/>
-        <v>163.2</v>
+        <v>163.19999999999999</v>
       </c>
       <c r="AE92" s="2">
         <f t="shared" si="2"/>
@@ -7695,7 +7101,7 @@
       </c>
       <c r="AG92" s="2">
         <f t="shared" si="2"/>
-        <v>10.518</v>
+        <v>10.517999999999999</v>
       </c>
       <c r="AH92" s="2">
         <f t="shared" si="2"/>
@@ -7706,12 +7112,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="93" spans="1:17">
+    <row r="93" spans="1:35">
       <c r="A93" s="1">
-        <v>0.0101851851851852</v>
+        <v>1.01851851851852E-2</v>
       </c>
       <c r="B93" s="1">
-        <v>0.0700810185185185</v>
+        <v>7.0081018518518501E-2</v>
       </c>
       <c r="C93">
         <v>169</v>
@@ -7759,12 +7165,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="94" spans="1:17">
+    <row r="94" spans="1:35">
       <c r="A94" s="1">
-        <v>0.0103009259259259</v>
+        <v>1.0300925925925899E-2</v>
       </c>
       <c r="B94" s="1">
-        <v>0.0701967592592593</v>
+        <v>7.0196759259259306E-2</v>
       </c>
       <c r="C94">
         <v>171</v>
@@ -7812,12 +7218,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="95" spans="1:17">
+    <row r="95" spans="1:35">
       <c r="A95" s="1">
-        <v>0.0104166666666667</v>
+        <v>1.0416666666666701E-2</v>
       </c>
       <c r="B95" s="1">
-        <v>0.0703125</v>
+        <v>7.03125E-2</v>
       </c>
       <c r="C95">
         <v>171</v>
@@ -7865,12 +7271,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="96" spans="1:17">
+    <row r="96" spans="1:35">
       <c r="A96" s="1">
-        <v>0.0105324074074074</v>
+        <v>1.05324074074074E-2</v>
       </c>
       <c r="B96" s="1">
-        <v>0.0704282407407407</v>
+        <v>7.0428240740740694E-2</v>
       </c>
       <c r="C96">
         <v>167</v>
@@ -7920,10 +7326,10 @@
     </row>
     <row r="97" spans="1:19">
       <c r="A97" s="1">
-        <v>0.0106481481481481</v>
+        <v>1.0648148148148099E-2</v>
       </c>
       <c r="B97" s="1">
-        <v>0.0705439814814815</v>
+        <v>7.0543981481481499E-2</v>
       </c>
       <c r="C97">
         <v>161</v>
@@ -7962,7 +7368,7 @@
         <v>951</v>
       </c>
       <c r="O97">
-        <v>9.55</v>
+        <v>9.5500000000000007</v>
       </c>
       <c r="P97">
         <v>96</v>
@@ -7974,12 +7380,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="98" spans="1:17">
+    <row r="98" spans="1:19">
       <c r="A98" s="1">
-        <v>0.0107638888888889</v>
+        <v>1.0763888888888899E-2</v>
       </c>
       <c r="B98" s="1">
-        <v>0.0706597222222222</v>
+        <v>7.0659722222222193E-2</v>
       </c>
       <c r="C98">
         <v>155</v>
@@ -8027,12 +7433,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="99" spans="1:17">
+    <row r="99" spans="1:19">
       <c r="A99" s="1">
-        <v>0.0108796296296296</v>
+        <v>1.08796296296296E-2</v>
       </c>
       <c r="B99" s="1">
-        <v>0.070775462962963</v>
+        <v>7.0775462962962998E-2</v>
       </c>
       <c r="C99">
         <v>150</v>
@@ -8071,7 +7477,7 @@
         <v>1015</v>
       </c>
       <c r="O99">
-        <v>8.95</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="P99">
         <v>99</v>
@@ -8080,12 +7486,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="100" spans="1:17">
+    <row r="100" spans="1:19">
       <c r="A100" s="1">
-        <v>0.0109953703703704</v>
+        <v>1.09953703703704E-2</v>
       </c>
       <c r="B100" s="1">
-        <v>0.0708912037037037</v>
+        <v>7.0891203703703706E-2</v>
       </c>
       <c r="C100">
         <v>147</v>
@@ -8124,7 +7530,7 @@
         <v>1014</v>
       </c>
       <c r="O100">
-        <v>8.96</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="P100">
         <v>100</v>
@@ -8133,12 +7539,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="101" spans="1:17">
+    <row r="101" spans="1:19">
       <c r="A101" s="1">
-        <v>0.0111111111111111</v>
+        <v>1.1111111111111099E-2</v>
       </c>
       <c r="B101" s="1">
-        <v>0.0710069444444444</v>
+        <v>7.10069444444444E-2</v>
       </c>
       <c r="C101">
         <v>144</v>
@@ -8186,12 +7592,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="102" spans="1:17">
+    <row r="102" spans="1:19">
       <c r="A102" s="1">
-        <v>0.0112268518518519</v>
+        <v>1.1226851851851899E-2</v>
       </c>
       <c r="B102" s="1">
-        <v>0.0711226851851852</v>
+        <v>7.1122685185185205E-2</v>
       </c>
       <c r="C102">
         <v>142</v>
@@ -8230,7 +7636,7 @@
         <v>1052</v>
       </c>
       <c r="O102">
-        <v>8.63</v>
+        <v>8.6300000000000008</v>
       </c>
       <c r="P102">
         <v>99</v>
@@ -8239,12 +7645,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="103" spans="1:17">
+    <row r="103" spans="1:19">
       <c r="A103" s="1">
-        <v>0.0113425925925926</v>
+        <v>1.13425925925926E-2</v>
       </c>
       <c r="B103" s="1">
-        <v>0.0712384259259259</v>
+        <v>7.12384259259259E-2</v>
       </c>
       <c r="C103">
         <v>143</v>
@@ -8283,7 +7689,7 @@
         <v>1042</v>
       </c>
       <c r="O103">
-        <v>8.71</v>
+        <v>8.7100000000000009</v>
       </c>
       <c r="P103">
         <v>100</v>
@@ -8292,12 +7698,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="104" spans="1:17">
+    <row r="104" spans="1:19">
       <c r="A104" s="1">
-        <v>0.0114583333333333</v>
+        <v>1.14583333333333E-2</v>
       </c>
       <c r="B104" s="1">
-        <v>0.0713541666666667</v>
+        <v>7.1354166666666705E-2</v>
       </c>
       <c r="C104">
         <v>140</v>
@@ -8336,7 +7742,7 @@
         <v>1054</v>
       </c>
       <c r="O104">
-        <v>8.62</v>
+        <v>8.6199999999999992</v>
       </c>
       <c r="P104">
         <v>104</v>
@@ -8345,46 +7751,37 @@
         <v>37</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:19">
       <c r="A106" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>